--- a/XLS Data/SHG Haryana.xlsx
+++ b/XLS Data/SHG Haryana.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\eclipse-workspace\LokOSMain\XLS Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296CA8B0-9FE7-4B62-8C5C-67A89D2B05A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B74C19F-5EE5-4F34-BD94-F7ECA4F1DAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{B5943E96-0337-46EC-8631-731C3FE0A3A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B5943E96-0337-46EC-8631-731C3FE0A3A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -353,7 +353,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="544">
   <si>
     <t>App</t>
   </si>
@@ -1078,9 +1078,6 @@
     <t>Sulata Gupta</t>
   </si>
   <si>
-    <t>#9455885271</t>
-  </si>
-  <si>
     <t>Horticulture Activities</t>
   </si>
   <si>
@@ -1108,9 +1105,6 @@
     <t>Main Branch</t>
   </si>
   <si>
-    <t>#40256541490</t>
-  </si>
-  <si>
     <t>23_02_2020</t>
   </si>
   <si>
@@ -1897,58 +1891,100 @@
     <t>New SHG</t>
   </si>
   <si>
+    <t>ASSAM TEST SHG</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Vinay</t>
+  </si>
+  <si>
+    <t>Gautam</t>
+  </si>
+  <si>
+    <t>Ria</t>
+  </si>
+  <si>
+    <t>Kunal</t>
+  </si>
+  <si>
+    <t>#40256541474</t>
+  </si>
+  <si>
+    <t>#40256541476</t>
+  </si>
+  <si>
+    <t>#40256541478</t>
+  </si>
+  <si>
+    <t>20_04_2022</t>
+  </si>
+  <si>
+    <t>HARYANA TEST SHG</t>
+  </si>
+  <si>
+    <t>Haryana</t>
+  </si>
+  <si>
+    <t>HR_HRBK</t>
+  </si>
+  <si>
+    <t>Aadhaar</t>
+  </si>
+  <si>
+    <t>40256541490</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>9455885271</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>19 Mobile Number</t>
+  </si>
+  <si>
+    <t>20 Address</t>
+  </si>
+  <si>
+    <t>21 Bank</t>
+  </si>
+  <si>
+    <t>22 President</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
     <t>Approve SHG</t>
   </si>
   <si>
-    <t>ASSAM TEST SHG</t>
-  </si>
-  <si>
-    <t>Rahul</t>
-  </si>
-  <si>
-    <t>Vinay</t>
-  </si>
-  <si>
-    <t>Gautam</t>
-  </si>
-  <si>
-    <t>Ria</t>
-  </si>
-  <si>
-    <t>Kunal</t>
-  </si>
-  <si>
-    <t>Rahul:9455120510</t>
-  </si>
-  <si>
-    <t>Submit</t>
-  </si>
-  <si>
-    <t>#40256541474</t>
-  </si>
-  <si>
-    <t>#40256541476</t>
-  </si>
-  <si>
-    <t>#40256541478</t>
-  </si>
-  <si>
-    <t>20_04_2022</t>
-  </si>
-  <si>
-    <t>HARYANA TEST SHG</t>
-  </si>
-  <si>
-    <t>BHOJI</t>
-  </si>
-  <si>
-    <t>Haryana</t>
-  </si>
-  <si>
-    <t>HR_HRBK</t>
-  </si>
-  <si>
-    <t>Aadhaar</t>
+    <t>Do Not Add</t>
+  </si>
+  <si>
+    <t>110049</t>
+  </si>
+  <si>
+    <t>BHADSON</t>
+  </si>
+  <si>
+    <t>Vinay:9455120510</t>
+  </si>
+  <si>
+    <t>23 Secretary</t>
+  </si>
+  <si>
+    <t>24 Treasurar</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -2481,32 +2517,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2603,9 +2618,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2729,13 +2741,36 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3061,29 +3096,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="17" style="31"/>
+    <col min="1" max="16384" width="17" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="33" customFormat="1" ht="22.2" customHeight="1" thickBot="1">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:10" s="26" customFormat="1" ht="22.2" customHeight="1" thickBot="1">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="26" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3092,7 +3127,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>223</v>
@@ -3101,13 +3136,13 @@
         <v>224</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="F2" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="F2" s="35" t="s">
         <v>225</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -3124,376 +3159,408 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC1CF2F-DF31-4E4A-8DA8-3780D013A601}">
-  <dimension ref="A1:BI3"/>
+  <dimension ref="A1:BO2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" style="1"/>
-    <col min="3" max="3" width="20.109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="15.21875" style="1"/>
+    <col min="1" max="1" width="6.44140625" style="51" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" style="51"/>
+    <col min="3" max="3" width="20.109375" style="51" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" style="51" customWidth="1"/>
+    <col min="5" max="18" width="15.21875" style="51"/>
+    <col min="19" max="19" width="16.33203125" style="51" customWidth="1"/>
+    <col min="20" max="16384" width="15.21875" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="8" customFormat="1" ht="84" customHeight="1" thickBot="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:67" s="85" customFormat="1" ht="84" customHeight="1" thickBot="1">
+      <c r="A1" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AI1" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AJ1" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AK1" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AL1" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AM1" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AN1" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AO1" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AP1" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AQ1" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AR1" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AS1" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AT1" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AU1" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AV1" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AW1" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AX1" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="AY1" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="AZ1" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BA1" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="BB1" s="6" t="s">
+      <c r="BB1" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BC1" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="BD1" s="6" t="s">
+      <c r="BD1" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="BE1" s="6" t="s">
+      <c r="BE1" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="BF1" s="6" t="s">
+      <c r="BF1" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="BG1" s="6" t="s">
+      <c r="BG1" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="BH1" s="6" t="s">
+      <c r="BH1" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="BI1" s="7" t="s">
+      <c r="BI1" s="84" t="s">
         <v>66</v>
       </c>
+      <c r="BJ1" s="85" t="s">
+        <v>531</v>
+      </c>
+      <c r="BK1" s="85" t="s">
+        <v>532</v>
+      </c>
+      <c r="BL1" s="85" t="s">
+        <v>533</v>
+      </c>
+      <c r="BM1" s="85" t="s">
+        <v>534</v>
+      </c>
+      <c r="BN1" s="85" t="s">
+        <v>541</v>
+      </c>
+      <c r="BO1" s="85" t="s">
+        <v>542</v>
+      </c>
     </row>
-    <row r="2" spans="1:61" ht="28.8">
-      <c r="A2" s="1">
+    <row r="2" spans="1:67" ht="28.8">
+      <c r="A2" s="51">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="51" t="s">
+        <v>511</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>536</v>
+      </c>
+      <c r="D2" s="87" t="s">
+        <v>522</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>539</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>539</v>
+      </c>
+      <c r="G2" s="86" t="s">
+        <v>543</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="K2" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="L2" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="M2" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="N2" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="O2" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="P2" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q2" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="S2" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="U2" s="51" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y2" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z2" s="51" t="s">
+        <v>527</v>
+      </c>
+      <c r="AA2" s="51" t="s">
+        <v>528</v>
+      </c>
+      <c r="AB2" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC2" s="51" t="s">
+        <v>505</v>
+      </c>
+      <c r="AD2" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE2" s="51" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF2" s="51" t="s">
+        <v>529</v>
+      </c>
+      <c r="AG2" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="AH2" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="AI2" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ2" s="51" t="s">
+        <v>530</v>
+      </c>
+      <c r="AL2" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM2" s="51" t="s">
+        <v>540</v>
+      </c>
+      <c r="AN2" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="AO2" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="AP2" s="51" t="s">
+        <v>538</v>
+      </c>
+      <c r="AQ2" s="51" t="s">
+        <v>512</v>
+      </c>
+      <c r="AR2" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="AS2" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="AT2" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU2" s="51" t="s">
+        <v>526</v>
+      </c>
+      <c r="AV2" s="51" t="s">
+        <v>526</v>
+      </c>
+      <c r="AW2" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="AX2" s="86"/>
+      <c r="AY2" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="AZ2" s="51" t="s">
         <v>513</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="BA2" s="51" t="s">
+        <v>521</v>
+      </c>
+      <c r="BB2" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="BC2" s="51" t="s">
         <v>514</v>
       </c>
-      <c r="D2" s="60" t="s">
-        <v>527</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="L2" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="M2" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="U2" s="1">
-        <v>15</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>300</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>12</v>
-      </c>
-      <c r="AB2" s="1" t="s">
+      <c r="BD2" s="51" t="s">
+        <v>521</v>
+      </c>
+      <c r="BE2" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="AC2" s="1">
-        <v>10</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>14</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AM2" s="1" t="s">
+      <c r="BF2" s="51" t="s">
+        <v>515</v>
+      </c>
+      <c r="BG2" s="51" t="s">
         <v>521</v>
       </c>
-      <c r="AN2" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AP2" s="1">
-        <v>110049</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AU2" s="1" t="s">
+      <c r="BH2" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="AV2" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AX2"/>
-      <c r="AY2" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:61">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>522</v>
+      <c r="BJ2" s="51" t="s">
+        <v>535</v>
+      </c>
+      <c r="BK2" s="51" t="s">
+        <v>535</v>
+      </c>
+      <c r="BL2" s="51" t="s">
+        <v>535</v>
+      </c>
+      <c r="BM2" s="51" t="s">
+        <v>535</v>
+      </c>
+      <c r="BN2" s="51" t="s">
+        <v>535</v>
+      </c>
+      <c r="BO2" s="51" t="s">
+        <v>537</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -3504,7 +3571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2AFBE2-8906-498D-ACCA-04BB80549CA6}">
   <dimension ref="A1:BH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AV2" sqref="AV2:AV6"/>
     </sheetView>
   </sheetViews>
@@ -3514,185 +3581,185 @@
     <col min="2" max="16384" width="16.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="41" customFormat="1" ht="48.6" customHeight="1">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:60" s="34" customFormat="1" ht="48.6" customHeight="1">
+      <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="37" t="s">
-        <v>404</v>
-      </c>
-      <c r="H1" s="37" t="s">
+      <c r="G1" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="H1" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="S1" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="T1" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="U1" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="V1" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="W1" s="37" t="s">
+      <c r="W1" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="X1" s="37" t="s">
+      <c r="X1" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="Y1" s="37" t="s">
+      <c r="Y1" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="Z1" s="37" t="s">
+      <c r="Z1" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="AA1" s="37" t="s">
+      <c r="AA1" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="AB1" s="37" t="s">
+      <c r="AB1" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="AC1" s="37" t="s">
+      <c r="AC1" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="AD1" s="37" t="s">
+      <c r="AD1" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="AE1" s="37" t="s">
+      <c r="AE1" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="AF1" s="37" t="s">
+      <c r="AF1" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AG1" s="39" t="s">
+      <c r="AG1" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="AH1" s="39" t="s">
+      <c r="AH1" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="AI1" s="39" t="s">
+      <c r="AI1" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="AJ1" s="39" t="s">
+      <c r="AJ1" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="AK1" s="39" t="s">
+      <c r="AK1" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="AL1" s="39" t="s">
+      <c r="AL1" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="AM1" s="39" t="s">
+      <c r="AM1" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="AN1" s="39" t="s">
+      <c r="AN1" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="AO1" s="39" t="s">
+      <c r="AO1" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="AP1" s="39" t="s">
+      <c r="AP1" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="AQ1" s="39" t="s">
+      <c r="AQ1" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="AR1" s="39" t="s">
+      <c r="AR1" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="AS1" s="39" t="s">
+      <c r="AS1" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="AT1" s="39" t="s">
+      <c r="AT1" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="AU1" s="39" t="s">
+      <c r="AU1" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="AV1" s="39" t="s">
+      <c r="AV1" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="AW1" s="39" t="s">
+      <c r="AW1" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="AX1" s="39" t="s">
+      <c r="AX1" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="AY1" s="39" t="s">
+      <c r="AY1" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="AZ1" s="39" t="s">
+      <c r="AZ1" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="BA1" s="39" t="s">
+      <c r="BA1" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="BB1" s="39" t="s">
+      <c r="BB1" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="BC1" s="39" t="s">
+      <c r="BC1" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="BD1" s="39" t="s">
+      <c r="BD1" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="BE1" s="39" t="s">
+      <c r="BE1" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="BF1" s="39" t="s">
+      <c r="BF1" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="BG1" s="39" t="s">
+      <c r="BG1" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="BH1" s="40" t="s">
+      <c r="BH1" s="33" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3700,796 +3767,796 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>527</v>
+      <c r="B2" s="52" t="s">
+        <v>522</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>238</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I2" s="1">
         <v>24</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="K2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="K2" s="61" t="s">
-        <v>343</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>240</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="54" t="s">
         <v>352</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="Y2" s="62" t="s">
-        <v>354</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="AA2" s="62" t="s">
+      <c r="AA2" s="54" t="s">
+        <v>353</v>
+      </c>
+      <c r="AB2" s="54" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC2" s="54" t="s">
         <v>355</v>
       </c>
-      <c r="AB2" s="62" t="s">
+      <c r="AF2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="AC2" s="62" t="s">
+      <c r="AH2" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AF2" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="AH2" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="AJ2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK2" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="AL2" s="1">
         <v>110049</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="AN2" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AO2" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="AO2" s="62" t="s">
-        <v>249</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="AR2" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AU2" s="1" t="s">
         <v>238</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="AW2" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AZ2" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="BA2" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="AZ2" s="62" t="s">
+      <c r="BB2" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BC2" s="54" t="s">
         <v>366</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="BC2" s="62" t="s">
+      <c r="BE2" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BF2" s="55" t="s">
+        <v>403</v>
+      </c>
+      <c r="BG2" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="BF2" s="63" t="s">
-        <v>405</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:60" ht="43.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>527</v>
+      <c r="B3" s="52" t="s">
+        <v>522</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="I3" s="1">
         <v>24</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="K3" s="61" t="s">
-        <v>343</v>
+        <v>340</v>
+      </c>
+      <c r="K3" s="53" t="s">
+        <v>341</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>240</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>238</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="W3" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y3" s="54" t="s">
         <v>352</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="Y3" s="62" t="s">
-        <v>354</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="AA3" s="62" t="s">
+      <c r="AA3" s="54" t="s">
+        <v>353</v>
+      </c>
+      <c r="AB3" s="54" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC3" s="54" t="s">
         <v>355</v>
       </c>
-      <c r="AB3" s="62" t="s">
-        <v>356</v>
-      </c>
-      <c r="AC3" s="62" t="s">
+      <c r="AF3" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AH3" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AF3" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="AI3" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AJ3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK3" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="AL3" s="1">
         <v>110050</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="AN3" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AO3" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AS3" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="AO3" s="62" t="s">
-        <v>249</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="AU3" s="1" t="s">
         <v>238</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="AZ3" s="62" t="s">
+        <v>362</v>
+      </c>
+      <c r="AZ3" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="BB3" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BC3" s="54" t="s">
+        <v>366</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="BE3" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="BB3" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="BC3" s="62" t="s">
-        <v>368</v>
-      </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BF3" s="55" t="s">
+        <v>403</v>
+      </c>
+      <c r="BG3" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="BF3" s="63" t="s">
-        <v>405</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:60" ht="28.8">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="60" t="s">
-        <v>527</v>
+      <c r="B4" s="52" t="s">
+        <v>522</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>238</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I4" s="1">
         <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="K4" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="K4" s="61" t="s">
-        <v>343</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>240</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="V4" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="W4" s="1" t="s">
+      <c r="Y4" s="54" t="s">
         <v>352</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="Y4" s="62" t="s">
-        <v>354</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="AA4" s="62" t="s">
+      <c r="AA4" s="54" t="s">
+        <v>353</v>
+      </c>
+      <c r="AB4" s="54" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC4" s="54" t="s">
         <v>355</v>
       </c>
-      <c r="AB4" s="62" t="s">
-        <v>356</v>
-      </c>
-      <c r="AC4" s="62" t="s">
+      <c r="AF4" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AH4" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AF4" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="AI4" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AJ4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK4" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="AL4" s="1">
         <v>110051</v>
       </c>
       <c r="AM4" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AO4" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="AN4" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="AO4" s="62" t="s">
-        <v>249</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>523</v>
-      </c>
       <c r="AR4" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AU4" s="1" t="s">
         <v>238</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="AW4" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="AZ4" s="62" t="s">
+        <v>362</v>
+      </c>
+      <c r="AZ4" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="BB4" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="BA4" s="1" t="s">
+      <c r="BC4" s="54" t="s">
+        <v>366</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="BE4" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="BB4" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="BC4" s="62" t="s">
-        <v>368</v>
-      </c>
-      <c r="BD4" s="1" t="s">
+      <c r="BF4" s="55" t="s">
+        <v>403</v>
+      </c>
+      <c r="BG4" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="BE4" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="BF4" s="63" t="s">
-        <v>405</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:60" ht="43.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="60" t="s">
-        <v>527</v>
+      <c r="B5" s="52" t="s">
+        <v>522</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="I5" s="1">
         <v>24</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="K5" s="61" t="s">
-        <v>343</v>
+        <v>340</v>
+      </c>
+      <c r="K5" s="53" t="s">
+        <v>341</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>240</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>238</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="W5" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y5" s="54" t="s">
         <v>352</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA5" s="54" t="s">
         <v>353</v>
       </c>
-      <c r="Y5" s="62" t="s">
+      <c r="AB5" s="54" t="s">
         <v>354</v>
       </c>
-      <c r="Z5" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AA5" s="62" t="s">
+      <c r="AC5" s="54" t="s">
         <v>355</v>
       </c>
-      <c r="AB5" s="62" t="s">
-        <v>356</v>
-      </c>
-      <c r="AC5" s="62" t="s">
+      <c r="AF5" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="AH5" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AF5" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="AI5" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AJ5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK5" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="AL5" s="1">
         <v>110052</v>
       </c>
       <c r="AM5" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AO5" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="AN5" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="AO5" s="62" t="s">
-        <v>249</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>524</v>
-      </c>
       <c r="AR5" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AU5" s="1" t="s">
         <v>238</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="AW5" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="AZ5" s="62" t="s">
+        <v>362</v>
+      </c>
+      <c r="AZ5" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="BB5" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="BA5" s="1" t="s">
+      <c r="BC5" s="54" t="s">
+        <v>366</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="BE5" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="BB5" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="BC5" s="62" t="s">
-        <v>368</v>
-      </c>
-      <c r="BD5" s="1" t="s">
+      <c r="BF5" s="55" t="s">
+        <v>403</v>
+      </c>
+      <c r="BG5" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="BE5" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="BF5" s="63" t="s">
-        <v>405</v>
-      </c>
-      <c r="BG5" s="1" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:60" ht="28.8">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="60" t="s">
-        <v>527</v>
+      <c r="B6" s="52" t="s">
+        <v>522</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>238</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I6" s="1">
         <v>24</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="K6" s="61" t="s">
-        <v>343</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>240</v>
       </c>
       <c r="N6" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="V6" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="W6" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="W6" s="1" t="s">
+      <c r="Y6" s="54" t="s">
         <v>352</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA6" s="54" t="s">
         <v>353</v>
       </c>
-      <c r="Y6" s="62" t="s">
+      <c r="AB6" s="54" t="s">
         <v>354</v>
       </c>
-      <c r="Z6" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AA6" s="62" t="s">
+      <c r="AC6" s="54" t="s">
         <v>355</v>
       </c>
-      <c r="AB6" s="62" t="s">
-        <v>356</v>
-      </c>
-      <c r="AC6" s="62" t="s">
+      <c r="AF6" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AH6" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AF6" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="AI6" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AJ6" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK6" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="AL6" s="1">
         <v>110053</v>
       </c>
       <c r="AM6" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="AO6" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="AN6" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="AO6" s="62" t="s">
-        <v>249</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>525</v>
-      </c>
       <c r="AR6" s="1" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AU6" s="1" t="s">
         <v>238</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="AW6" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="AZ6" s="62" t="s">
+        <v>362</v>
+      </c>
+      <c r="AZ6" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="BB6" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="BA6" s="1" t="s">
+      <c r="BC6" s="54" t="s">
+        <v>366</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="BE6" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="BB6" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="BC6" s="62" t="s">
-        <v>368</v>
-      </c>
-      <c r="BD6" s="1" t="s">
+      <c r="BF6" s="55" t="s">
+        <v>403</v>
+      </c>
+      <c r="BG6" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="BE6" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="BF6" s="63" t="s">
-        <v>405</v>
-      </c>
-      <c r="BG6" s="1" t="s">
-        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -4523,38 +4590,38 @@
     <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="12" customFormat="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:11" s="5" customFormat="1">
+      <c r="A1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="4" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4563,31 +4630,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>333</v>
+        <v>330</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>331</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -4613,284 +4680,284 @@
     <col min="2" max="16384" width="17.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" s="23" customFormat="1" ht="49.2" customHeight="1" thickBot="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:93" s="16" customFormat="1" ht="49.2" customHeight="1" thickBot="1">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="T1" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="U1" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="W1" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="X1" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AA1" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="AB1" s="24" t="s">
+      <c r="AB1" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="AC1" s="24" t="s">
+      <c r="AC1" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="AD1" s="24" t="s">
+      <c r="AD1" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="AE1" s="24" t="s">
+      <c r="AE1" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="AF1" s="24" t="s">
+      <c r="AF1" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="AG1" s="24" t="s">
+      <c r="AG1" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="AH1" s="24" t="s">
+      <c r="AH1" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="AI1" s="24" t="s">
+      <c r="AI1" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="AJ1" s="24" t="s">
+      <c r="AJ1" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="AK1" s="24" t="s">
+      <c r="AK1" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="AL1" s="24" t="s">
+      <c r="AL1" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="AM1" s="16" t="s">
+      <c r="AM1" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="AN1" s="16" t="s">
+      <c r="AN1" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="AO1" s="16" t="s">
+      <c r="AO1" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="AP1" s="25" t="s">
+      <c r="AP1" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="AQ1" s="25" t="s">
+      <c r="AQ1" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="AR1" s="25" t="s">
+      <c r="AR1" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="AS1" s="25" t="s">
+      <c r="AS1" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="AT1" s="25" t="s">
+      <c r="AT1" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="AU1" s="25" t="s">
+      <c r="AU1" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="AV1" s="25" t="s">
+      <c r="AV1" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="AW1" s="25" t="s">
+      <c r="AW1" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="AX1" s="25" t="s">
+      <c r="AX1" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="AY1" s="25" t="s">
+      <c r="AY1" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="AZ1" s="25" t="s">
+      <c r="AZ1" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="BA1" s="26" t="s">
+      <c r="BA1" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="BB1" s="15" t="s">
+      <c r="BB1" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="BC1" s="27" t="s">
+      <c r="BC1" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="BD1" s="27" t="s">
+      <c r="BD1" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="BE1" s="27" t="s">
+      <c r="BE1" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="BF1" s="28" t="s">
+      <c r="BF1" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="BG1" s="28" t="s">
+      <c r="BG1" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="BH1" s="28" t="s">
+      <c r="BH1" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="BI1" s="28" t="s">
+      <c r="BI1" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="BJ1" s="28" t="s">
+      <c r="BJ1" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="BK1" s="23" t="s">
+      <c r="BK1" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="BL1" s="23" t="s">
+      <c r="BL1" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="BM1" s="23" t="s">
+      <c r="BM1" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="BN1" s="23" t="s">
+      <c r="BN1" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="BO1" s="23" t="s">
+      <c r="BO1" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="BP1" s="23" t="s">
+      <c r="BP1" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="BQ1" s="24" t="s">
+      <c r="BQ1" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="BR1" s="24" t="s">
+      <c r="BR1" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="BS1" s="24" t="s">
+      <c r="BS1" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="BT1" s="24" t="s">
+      <c r="BT1" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="BU1" s="24" t="s">
+      <c r="BU1" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="BV1" s="24" t="s">
+      <c r="BV1" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="BW1" s="24" t="s">
+      <c r="BW1" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="BX1" s="24" t="s">
+      <c r="BX1" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="BY1" s="24" t="s">
+      <c r="BY1" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="BZ1" s="24" t="s">
+      <c r="BZ1" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="CA1" s="24" t="s">
+      <c r="CA1" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="CB1" s="24" t="s">
+      <c r="CB1" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="CC1" s="23" t="s">
+      <c r="CC1" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="CD1" s="29" t="s">
+      <c r="CD1" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="CE1" s="29" t="s">
+      <c r="CE1" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="CF1" s="29" t="s">
+      <c r="CF1" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="CG1" s="29" t="s">
+      <c r="CG1" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="CH1" s="30" t="s">
+      <c r="CH1" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="CI1" s="30" t="s">
+      <c r="CI1" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="CJ1" s="30" t="s">
+      <c r="CJ1" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="CK1" s="15" t="s">
+      <c r="CK1" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="CL1" s="15" t="s">
+      <c r="CL1" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="CM1" s="15" t="s">
+      <c r="CM1" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="CN1" s="15" t="s">
+      <c r="CN1" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="CO1" s="15" t="s">
+      <c r="CO1" s="8" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4902,13 +4969,13 @@
         <v>226</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D2" s="1">
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F2" s="1">
         <v>12</v>
@@ -4926,7 +4993,7 @@
         <v>100</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L2" s="1">
         <v>500</v>
@@ -4950,22 +5017,22 @@
         <v>60</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="V2" s="1">
         <v>10</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Z2" s="1">
         <v>500</v>
@@ -4989,22 +5056,22 @@
         <v>60</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AI2" s="1">
         <v>10</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AM2" s="1">
         <v>500</v>
@@ -5028,19 +5095,19 @@
         <v>60</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AV2" s="1">
         <v>10</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AY2" s="1">
         <v>200</v>
@@ -5049,20 +5116,20 @@
         <v>100</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="BC2" s="1">
         <v>500</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:93">
-      <c r="E6" s="59"/>
+      <c r="E6" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5079,40 +5146,40 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="55" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" style="55" customWidth="1"/>
-    <col min="3" max="5" width="17.109375" style="55"/>
-    <col min="6" max="6" width="20.33203125" style="55" customWidth="1"/>
-    <col min="7" max="7" width="21.77734375" style="55" customWidth="1"/>
-    <col min="8" max="29" width="17.109375" style="55"/>
-    <col min="30" max="34" width="17.109375" style="57"/>
-    <col min="35" max="16384" width="17.109375" style="55"/>
+    <col min="1" max="1" width="5.88671875" style="47" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="47" customWidth="1"/>
+    <col min="3" max="5" width="17.109375" style="47"/>
+    <col min="6" max="6" width="20.33203125" style="47" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" style="47" customWidth="1"/>
+    <col min="8" max="29" width="17.109375" style="47"/>
+    <col min="30" max="34" width="17.109375" style="49"/>
+    <col min="35" max="16384" width="17.109375" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:147" s="86" customFormat="1" ht="25.8" customHeight="1" thickBot="1">
-      <c r="A1" s="83"/>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="87" t="s">
+    <row r="1" spans="1:147" s="78" customFormat="1" ht="25.8" customHeight="1" thickBot="1">
+      <c r="A1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="88" t="s">
+        <v>290</v>
+      </c>
+      <c r="I1" s="90"/>
+      <c r="J1" s="88" t="s">
+        <v>291</v>
+      </c>
+      <c r="K1" s="89"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="88" t="s">
         <v>292</v>
       </c>
-      <c r="I1" s="88"/>
-      <c r="J1" s="87" t="s">
+      <c r="N1" s="89"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="88" t="s">
         <v>293</v>
-      </c>
-      <c r="K1" s="89"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="87" t="s">
-        <v>294</v>
-      </c>
-      <c r="N1" s="89"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="87" t="s">
-        <v>295</v>
       </c>
       <c r="Q1" s="89"/>
       <c r="R1" s="89"/>
@@ -5123,9 +5190,9 @@
       <c r="W1" s="89"/>
       <c r="X1" s="89"/>
       <c r="Y1" s="89"/>
-      <c r="Z1" s="88"/>
-      <c r="AA1" s="87" t="s">
-        <v>296</v>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="88" t="s">
+        <v>294</v>
       </c>
       <c r="AB1" s="89"/>
       <c r="AC1" s="89"/>
@@ -5136,9 +5203,9 @@
       <c r="AH1" s="89"/>
       <c r="AI1" s="89"/>
       <c r="AJ1" s="89"/>
-      <c r="AK1" s="88"/>
-      <c r="AL1" s="87" t="s">
-        <v>297</v>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="88" t="s">
+        <v>295</v>
       </c>
       <c r="AM1" s="89"/>
       <c r="AN1" s="89"/>
@@ -5153,9 +5220,9 @@
       <c r="AW1" s="89"/>
       <c r="AX1" s="89"/>
       <c r="AY1" s="89"/>
-      <c r="AZ1" s="88"/>
-      <c r="BA1" s="87" t="s">
-        <v>298</v>
+      <c r="AZ1" s="90"/>
+      <c r="BA1" s="88" t="s">
+        <v>296</v>
       </c>
       <c r="BB1" s="89"/>
       <c r="BC1" s="89"/>
@@ -5176,14 +5243,14 @@
       <c r="BR1" s="89"/>
       <c r="BS1" s="89"/>
       <c r="BT1" s="89"/>
-      <c r="BU1" s="88"/>
-      <c r="BV1" s="87" t="s">
-        <v>299</v>
+      <c r="BU1" s="90"/>
+      <c r="BV1" s="88" t="s">
+        <v>297</v>
       </c>
       <c r="BW1" s="89"/>
-      <c r="BX1" s="88"/>
-      <c r="BY1" s="87" t="s">
-        <v>300</v>
+      <c r="BX1" s="90"/>
+      <c r="BY1" s="88" t="s">
+        <v>298</v>
       </c>
       <c r="BZ1" s="89"/>
       <c r="CA1" s="89"/>
@@ -5196,9 +5263,9 @@
       <c r="CH1" s="89"/>
       <c r="CI1" s="89"/>
       <c r="CJ1" s="89"/>
-      <c r="CK1" s="88"/>
-      <c r="CL1" s="87" t="s">
-        <v>301</v>
+      <c r="CK1" s="90"/>
+      <c r="CL1" s="88" t="s">
+        <v>299</v>
       </c>
       <c r="CM1" s="89"/>
       <c r="CN1" s="89"/>
@@ -5227,9 +5294,9 @@
       <c r="DK1" s="89"/>
       <c r="DL1" s="89"/>
       <c r="DM1" s="89"/>
-      <c r="DN1" s="88"/>
-      <c r="DO1" s="87" t="s">
-        <v>302</v>
+      <c r="DN1" s="90"/>
+      <c r="DO1" s="88" t="s">
+        <v>300</v>
       </c>
       <c r="DP1" s="89"/>
       <c r="DQ1" s="89"/>
@@ -5242,14 +5309,14 @@
       <c r="DX1" s="89"/>
       <c r="DY1" s="89"/>
       <c r="DZ1" s="89"/>
-      <c r="EA1" s="88"/>
-      <c r="EB1" s="87" t="s">
-        <v>294</v>
+      <c r="EA1" s="90"/>
+      <c r="EB1" s="88" t="s">
+        <v>292</v>
       </c>
       <c r="EC1" s="89"/>
-      <c r="ED1" s="88"/>
-      <c r="EE1" s="87" t="s">
-        <v>303</v>
+      <c r="ED1" s="90"/>
+      <c r="EE1" s="88" t="s">
+        <v>301</v>
       </c>
       <c r="EF1" s="89"/>
       <c r="EG1" s="89"/>
@@ -5262,1833 +5329,1838 @@
       <c r="EN1" s="89"/>
       <c r="EO1" s="89"/>
       <c r="EP1" s="89"/>
-      <c r="EQ1" s="88"/>
+      <c r="EQ1" s="90"/>
     </row>
-    <row r="2" spans="1:147" s="58" customFormat="1" ht="75.599999999999994" customHeight="1" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="64" t="s">
+    <row r="2" spans="1:147" s="50" customFormat="1" ht="75.599999999999994" customHeight="1" thickBot="1">
+      <c r="A2" s="39"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="56" t="s">
+        <v>269</v>
+      </c>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56" t="s">
+        <v>288</v>
+      </c>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56" t="s">
+        <v>288</v>
+      </c>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56" t="s">
+        <v>288</v>
+      </c>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56" t="s">
+        <v>288</v>
+      </c>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56" t="s">
+        <v>288</v>
+      </c>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56" t="s">
+        <v>288</v>
+      </c>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56" t="s">
+        <v>289</v>
+      </c>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56" t="s">
+        <v>289</v>
+      </c>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="56" t="s">
+        <v>289</v>
+      </c>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56" t="s">
+        <v>289</v>
+      </c>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56" t="s">
+        <v>289</v>
+      </c>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="56" t="s">
+        <v>289</v>
+      </c>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="56" t="s">
+        <v>289</v>
+      </c>
+      <c r="AY2" s="56"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="BB2" s="57"/>
+      <c r="BC2" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="BD2" s="57"/>
+      <c r="BE2" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="BF2" s="57"/>
+      <c r="BG2" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="BH2" s="57"/>
+      <c r="BI2" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="BJ2" s="57"/>
+      <c r="BK2" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="BL2" s="57"/>
+      <c r="BM2" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="BN2" s="57"/>
+      <c r="BO2" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="BP2" s="57"/>
+      <c r="BQ2" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="BR2" s="57"/>
+      <c r="BS2" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="BT2" s="57"/>
+      <c r="BU2" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="BV2" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="BW2" s="57"/>
+      <c r="BX2" s="57"/>
+      <c r="BY2" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="BZ2" s="57"/>
+      <c r="CA2" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="CB2" s="57"/>
+      <c r="CC2" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="CD2" s="57"/>
+      <c r="CE2" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="CF2" s="57"/>
+      <c r="CG2" s="56" t="s">
+        <v>289</v>
+      </c>
+      <c r="CH2" s="56"/>
+      <c r="CI2" s="56" t="s">
+        <v>289</v>
+      </c>
+      <c r="CJ2" s="56"/>
+      <c r="CK2" s="56"/>
+      <c r="CL2" s="56"/>
+      <c r="CM2" s="56"/>
+      <c r="CN2" s="56"/>
+      <c r="CO2" s="56"/>
+      <c r="CP2" s="56"/>
+      <c r="CQ2" s="56"/>
+      <c r="CR2" s="56"/>
+      <c r="CS2" s="56"/>
+      <c r="CT2" s="56"/>
+      <c r="CU2" s="56"/>
+      <c r="CV2" s="56"/>
+      <c r="CW2" s="56"/>
+      <c r="CX2" s="56"/>
+      <c r="CY2" s="56"/>
+      <c r="CZ2" s="56"/>
+      <c r="DA2" s="56"/>
+      <c r="DB2" s="56"/>
+      <c r="DC2" s="56"/>
+      <c r="DD2" s="56"/>
+      <c r="DE2" s="56"/>
+      <c r="DF2" s="56"/>
+      <c r="DG2" s="56"/>
+      <c r="DH2" s="56"/>
+      <c r="DI2" s="56"/>
+      <c r="DJ2" s="56"/>
+      <c r="DK2" s="56"/>
+      <c r="DL2" s="56"/>
+      <c r="DM2" s="56"/>
+      <c r="DN2" s="56"/>
+      <c r="DO2" s="56"/>
+      <c r="DP2" s="56"/>
+      <c r="DQ2" s="56"/>
+      <c r="DR2" s="56"/>
+      <c r="DS2" s="56"/>
+      <c r="DT2" s="56"/>
+      <c r="DU2" s="56"/>
+      <c r="DV2" s="56"/>
+      <c r="DW2" s="56"/>
+      <c r="DX2" s="56"/>
+      <c r="DY2" s="56"/>
+      <c r="DZ2" s="56"/>
+      <c r="EA2" s="56"/>
+      <c r="EB2" s="56"/>
+      <c r="EC2" s="56"/>
+      <c r="ED2" s="56"/>
+      <c r="EE2" s="56" t="s">
+        <v>408</v>
+      </c>
+      <c r="EF2" s="56"/>
+      <c r="EG2" s="56" t="s">
+        <v>408</v>
+      </c>
+      <c r="EH2" s="56"/>
+      <c r="EI2" s="56" t="s">
+        <v>408</v>
+      </c>
+      <c r="EJ2" s="56"/>
+      <c r="EK2" s="56" t="s">
+        <v>409</v>
+      </c>
+      <c r="EL2" s="56"/>
+      <c r="EM2" s="56" t="s">
+        <v>409</v>
+      </c>
+      <c r="EN2" s="56"/>
+      <c r="EO2" s="56" t="s">
+        <v>408</v>
+      </c>
+      <c r="EP2" s="56"/>
+      <c r="EQ2" s="56"/>
+    </row>
+    <row r="3" spans="1:147" s="38" customFormat="1" ht="18" thickBot="1">
+      <c r="A3" s="36"/>
+      <c r="B3" s="71">
+        <v>0</v>
+      </c>
+      <c r="C3" s="72">
+        <v>0</v>
+      </c>
+      <c r="D3" s="72">
+        <v>0</v>
+      </c>
+      <c r="E3" s="72" t="s">
+        <v>410</v>
+      </c>
+      <c r="F3" s="72">
+        <v>0</v>
+      </c>
+      <c r="G3" s="72" t="s">
+        <v>475</v>
+      </c>
+      <c r="H3" s="58">
+        <v>1</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>476</v>
+      </c>
+      <c r="J3" s="58">
+        <v>2</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>411</v>
+      </c>
+      <c r="L3" s="58">
+        <v>2999</v>
+      </c>
+      <c r="M3" s="58">
+        <v>3</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>412</v>
+      </c>
+      <c r="O3" s="58">
+        <v>3999</v>
+      </c>
+      <c r="P3" s="58">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="58" t="s">
+        <v>413</v>
+      </c>
+      <c r="R3" s="58">
+        <v>104</v>
+      </c>
+      <c r="S3" s="58" t="s">
+        <v>414</v>
+      </c>
+      <c r="T3" s="58">
+        <v>204</v>
+      </c>
+      <c r="U3" s="58" t="s">
+        <v>415</v>
+      </c>
+      <c r="V3" s="58">
+        <v>304</v>
+      </c>
+      <c r="W3" s="58" t="s">
+        <v>416</v>
+      </c>
+      <c r="X3" s="58">
+        <v>404</v>
+      </c>
+      <c r="Y3" s="58" t="s">
+        <v>417</v>
+      </c>
+      <c r="Z3" s="58">
+        <v>4999</v>
+      </c>
+      <c r="AA3" s="58">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="58" t="s">
+        <v>418</v>
+      </c>
+      <c r="AC3" s="58">
+        <v>105</v>
+      </c>
+      <c r="AD3" s="58" t="s">
+        <v>419</v>
+      </c>
+      <c r="AE3" s="58">
+        <v>205</v>
+      </c>
+      <c r="AF3" s="58" t="s">
+        <v>420</v>
+      </c>
+      <c r="AG3" s="58">
+        <v>305</v>
+      </c>
+      <c r="AH3" s="58" t="s">
+        <v>421</v>
+      </c>
+      <c r="AI3" s="58">
+        <v>405</v>
+      </c>
+      <c r="AJ3" s="58" t="s">
+        <v>422</v>
+      </c>
+      <c r="AK3" s="58">
+        <v>5999</v>
+      </c>
+      <c r="AL3" s="58">
+        <v>6</v>
+      </c>
+      <c r="AM3" s="58" t="s">
+        <v>423</v>
+      </c>
+      <c r="AN3" s="58">
+        <v>106</v>
+      </c>
+      <c r="AO3" s="58" t="s">
+        <v>424</v>
+      </c>
+      <c r="AP3" s="58">
+        <v>206</v>
+      </c>
+      <c r="AQ3" s="58" t="s">
+        <v>425</v>
+      </c>
+      <c r="AR3" s="58">
+        <v>306</v>
+      </c>
+      <c r="AS3" s="58" t="s">
+        <v>426</v>
+      </c>
+      <c r="AT3" s="58">
+        <v>406</v>
+      </c>
+      <c r="AU3" s="58" t="s">
+        <v>427</v>
+      </c>
+      <c r="AV3" s="58">
+        <v>506</v>
+      </c>
+      <c r="AW3" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="AX3" s="58">
+        <v>606</v>
+      </c>
+      <c r="AY3" s="58" t="s">
+        <v>429</v>
+      </c>
+      <c r="AZ3" s="58">
+        <v>6999</v>
+      </c>
+      <c r="BA3" s="58">
+        <v>8</v>
+      </c>
+      <c r="BB3" s="58" t="s">
+        <v>430</v>
+      </c>
+      <c r="BC3" s="58">
+        <v>108</v>
+      </c>
+      <c r="BD3" s="58" t="s">
+        <v>431</v>
+      </c>
+      <c r="BE3" s="58">
+        <v>208</v>
+      </c>
+      <c r="BF3" s="58" t="s">
+        <v>432</v>
+      </c>
+      <c r="BG3" s="58">
+        <v>308</v>
+      </c>
+      <c r="BH3" s="58" t="s">
+        <v>433</v>
+      </c>
+      <c r="BI3" s="58">
+        <v>408</v>
+      </c>
+      <c r="BJ3" s="58" t="s">
+        <v>434</v>
+      </c>
+      <c r="BK3" s="58">
+        <v>508</v>
+      </c>
+      <c r="BL3" s="58" t="s">
+        <v>435</v>
+      </c>
+      <c r="BM3" s="58">
+        <v>608</v>
+      </c>
+      <c r="BN3" s="58" t="s">
+        <v>436</v>
+      </c>
+      <c r="BO3" s="58">
+        <v>708</v>
+      </c>
+      <c r="BP3" s="58" t="s">
+        <v>437</v>
+      </c>
+      <c r="BQ3" s="58">
+        <v>808</v>
+      </c>
+      <c r="BR3" s="58" t="s">
+        <v>438</v>
+      </c>
+      <c r="BS3" s="58">
+        <v>908</v>
+      </c>
+      <c r="BT3" s="58" t="s">
+        <v>439</v>
+      </c>
+      <c r="BU3" s="58">
+        <v>8999</v>
+      </c>
+      <c r="BV3" s="58">
+        <v>9</v>
+      </c>
+      <c r="BW3" s="58" t="s">
+        <v>440</v>
+      </c>
+      <c r="BX3" s="58">
+        <v>9999</v>
+      </c>
+      <c r="BY3" s="58">
+        <v>10</v>
+      </c>
+      <c r="BZ3" s="58" t="s">
+        <v>441</v>
+      </c>
+      <c r="CA3" s="58">
+        <v>110</v>
+      </c>
+      <c r="CB3" s="58" t="s">
+        <v>442</v>
+      </c>
+      <c r="CC3" s="58">
+        <v>210</v>
+      </c>
+      <c r="CD3" s="58" t="s">
+        <v>443</v>
+      </c>
+      <c r="CE3" s="58">
+        <v>310</v>
+      </c>
+      <c r="CF3" s="58" t="s">
+        <v>444</v>
+      </c>
+      <c r="CG3" s="58">
+        <v>410</v>
+      </c>
+      <c r="CH3" s="58" t="s">
+        <v>445</v>
+      </c>
+      <c r="CI3" s="58">
+        <v>510</v>
+      </c>
+      <c r="CJ3" s="58" t="s">
+        <v>446</v>
+      </c>
+      <c r="CK3" s="58">
+        <v>10999</v>
+      </c>
+      <c r="CL3" s="58">
+        <v>11</v>
+      </c>
+      <c r="CM3" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="CN3" s="58">
+        <v>111</v>
+      </c>
+      <c r="CO3" s="58" t="s">
+        <v>448</v>
+      </c>
+      <c r="CP3" s="58">
+        <v>211</v>
+      </c>
+      <c r="CQ3" s="58" t="s">
+        <v>449</v>
+      </c>
+      <c r="CR3" s="58">
+        <v>311</v>
+      </c>
+      <c r="CS3" s="58" t="s">
+        <v>450</v>
+      </c>
+      <c r="CT3" s="58">
+        <v>411</v>
+      </c>
+      <c r="CU3" s="58" t="s">
+        <v>451</v>
+      </c>
+      <c r="CV3" s="58">
+        <v>511</v>
+      </c>
+      <c r="CW3" s="58" t="s">
+        <v>452</v>
+      </c>
+      <c r="CX3" s="58">
+        <v>611</v>
+      </c>
+      <c r="CY3" s="58" t="s">
+        <v>453</v>
+      </c>
+      <c r="CZ3" s="58">
+        <v>711</v>
+      </c>
+      <c r="DA3" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="DB3" s="58">
+        <v>811</v>
+      </c>
+      <c r="DC3" s="58" t="s">
+        <v>455</v>
+      </c>
+      <c r="DD3" s="58">
+        <v>911</v>
+      </c>
+      <c r="DE3" s="58" t="s">
+        <v>456</v>
+      </c>
+      <c r="DF3" s="58">
+        <v>1011</v>
+      </c>
+      <c r="DG3" s="58" t="s">
+        <v>457</v>
+      </c>
+      <c r="DH3" s="58">
+        <v>1111</v>
+      </c>
+      <c r="DI3" s="58" t="s">
+        <v>458</v>
+      </c>
+      <c r="DJ3" s="58">
+        <v>1211</v>
+      </c>
+      <c r="DK3" s="58" t="s">
+        <v>459</v>
+      </c>
+      <c r="DL3" s="58">
+        <v>1311</v>
+      </c>
+      <c r="DM3" s="58" t="s">
+        <v>460</v>
+      </c>
+      <c r="DN3" s="58">
+        <v>11999</v>
+      </c>
+      <c r="DO3" s="58">
+        <v>12</v>
+      </c>
+      <c r="DP3" s="58" t="s">
+        <v>461</v>
+      </c>
+      <c r="DQ3" s="58">
+        <v>112</v>
+      </c>
+      <c r="DR3" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="DS3" s="58">
+        <v>212</v>
+      </c>
+      <c r="DT3" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="DU3" s="58">
+        <v>312</v>
+      </c>
+      <c r="DV3" s="58" t="s">
+        <v>464</v>
+      </c>
+      <c r="DW3" s="58">
+        <v>412</v>
+      </c>
+      <c r="DX3" s="58" t="s">
+        <v>465</v>
+      </c>
+      <c r="DY3" s="58">
+        <v>512</v>
+      </c>
+      <c r="DZ3" s="58" t="s">
+        <v>466</v>
+      </c>
+      <c r="EA3" s="58">
+        <v>12999</v>
+      </c>
+      <c r="EB3" s="58">
+        <v>13</v>
+      </c>
+      <c r="EC3" s="58" t="s">
+        <v>467</v>
+      </c>
+      <c r="ED3" s="58">
+        <v>13999</v>
+      </c>
+      <c r="EE3" s="58">
+        <v>14</v>
+      </c>
+      <c r="EF3" s="58" t="s">
+        <v>468</v>
+      </c>
+      <c r="EG3" s="58">
+        <v>114</v>
+      </c>
+      <c r="EH3" s="58" t="s">
+        <v>469</v>
+      </c>
+      <c r="EI3" s="58">
+        <v>214</v>
+      </c>
+      <c r="EJ3" s="58" t="s">
+        <v>470</v>
+      </c>
+      <c r="EK3" s="58">
+        <v>314</v>
+      </c>
+      <c r="EL3" s="58" t="s">
+        <v>471</v>
+      </c>
+      <c r="EM3" s="58">
+        <v>414</v>
+      </c>
+      <c r="EN3" s="58" t="s">
+        <v>472</v>
+      </c>
+      <c r="EO3" s="58">
+        <v>514</v>
+      </c>
+      <c r="EP3" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="EQ3" s="58">
+        <v>14999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:147" s="37" customFormat="1" ht="42" thickBot="1">
+      <c r="A4" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="74" t="s">
+        <v>474</v>
+      </c>
+      <c r="F4" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="74" t="s">
+        <v>474</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>263</v>
+      </c>
+      <c r="I4" s="62" t="s">
+        <v>474</v>
+      </c>
+      <c r="J4" s="63" t="s">
+        <v>265</v>
+      </c>
+      <c r="K4" s="64" t="s">
+        <v>474</v>
+      </c>
+      <c r="L4" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="M4" s="60" t="s">
+        <v>267</v>
+      </c>
+      <c r="N4" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="O4" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="P4" s="60" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q4" s="64" t="s">
+        <v>474</v>
+      </c>
+      <c r="R4" s="60" t="s">
         <v>271</v>
       </c>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64" t="s">
-        <v>266</v>
-      </c>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64" t="s">
-        <v>268</v>
-      </c>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64" t="s">
+      <c r="S4" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="T4" s="60" t="s">
+        <v>482</v>
+      </c>
+      <c r="U4" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="V4" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="W4" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="X4" s="60" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y4" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="Z4" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA4" s="60" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB4" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="AC4" s="60" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD4" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="AE4" s="60" t="s">
+        <v>272</v>
+      </c>
+      <c r="AF4" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="AG4" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="AH4" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="AI4" s="60" t="s">
+        <v>275</v>
+      </c>
+      <c r="AJ4" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="AK4" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="AL4" s="60" t="s">
+        <v>276</v>
+      </c>
+      <c r="AM4" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="AN4" s="60" t="s">
+        <v>277</v>
+      </c>
+      <c r="AO4" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="AP4" s="60" t="s">
+        <v>278</v>
+      </c>
+      <c r="AQ4" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="AR4" s="60" t="s">
+        <v>279</v>
+      </c>
+      <c r="AS4" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="AT4" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="AU4" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="AV4" s="60" t="s">
+        <v>281</v>
+      </c>
+      <c r="AW4" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="AX4" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="AY4" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="AZ4" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="BA4" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="BB4" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="BC4" s="60" t="s">
+        <v>271</v>
+      </c>
+      <c r="BD4" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="BE4" s="60" t="s">
+        <v>303</v>
+      </c>
+      <c r="BF4" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="BG4" s="60" t="s">
         <v>304</v>
       </c>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64" t="s">
-        <v>290</v>
-      </c>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64" t="s">
-        <v>290</v>
-      </c>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64" t="s">
-        <v>290</v>
-      </c>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64" t="s">
+      <c r="BH4" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="BI4" s="60" t="s">
+        <v>324</v>
+      </c>
+      <c r="BJ4" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="BK4" s="60" t="s">
+        <v>275</v>
+      </c>
+      <c r="BL4" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="BM4" s="60" t="s">
+        <v>305</v>
+      </c>
+      <c r="BN4" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="BO4" s="60" t="s">
+        <v>306</v>
+      </c>
+      <c r="BP4" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="BQ4" s="60" t="s">
+        <v>307</v>
+      </c>
+      <c r="BR4" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="BS4" s="60" t="s">
+        <v>308</v>
+      </c>
+      <c r="BT4" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="BU4" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="BV4" s="60" t="s">
+        <v>271</v>
+      </c>
+      <c r="BW4" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="BX4" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="BY4" s="60" t="s">
+        <v>309</v>
+      </c>
+      <c r="BZ4" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="CA4" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="CB4" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="CC4" s="60" t="s">
         <v>304</v>
       </c>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64" t="s">
-        <v>290</v>
-      </c>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64" t="s">
-        <v>290</v>
-      </c>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64" t="s">
-        <v>290</v>
-      </c>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64" t="s">
-        <v>290</v>
-      </c>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="AM2" s="64"/>
-      <c r="AN2" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="AO2" s="64"/>
-      <c r="AP2" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="AQ2" s="64"/>
-      <c r="AR2" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="AS2" s="64"/>
-      <c r="AT2" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="AU2" s="64"/>
-      <c r="AV2" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="AW2" s="64"/>
-      <c r="AX2" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="AY2" s="64"/>
-      <c r="AZ2" s="64"/>
-      <c r="BA2" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="BB2" s="65"/>
-      <c r="BC2" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="BD2" s="65"/>
-      <c r="BE2" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="BF2" s="65"/>
-      <c r="BG2" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="BH2" s="65"/>
-      <c r="BI2" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="BJ2" s="65"/>
-      <c r="BK2" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="BL2" s="65"/>
-      <c r="BM2" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="BN2" s="65"/>
-      <c r="BO2" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="BP2" s="65"/>
-      <c r="BQ2" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="BR2" s="65"/>
-      <c r="BS2" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="BT2" s="65"/>
-      <c r="BU2" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="BV2" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="BW2" s="65"/>
-      <c r="BX2" s="65"/>
-      <c r="BY2" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="BZ2" s="65"/>
-      <c r="CA2" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="CB2" s="65"/>
-      <c r="CC2" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="CD2" s="65"/>
-      <c r="CE2" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="CF2" s="65"/>
-      <c r="CG2" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="CH2" s="64"/>
-      <c r="CI2" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="CJ2" s="64"/>
-      <c r="CK2" s="64"/>
-      <c r="CL2" s="64"/>
-      <c r="CM2" s="64"/>
-      <c r="CN2" s="64"/>
-      <c r="CO2" s="64"/>
-      <c r="CP2" s="64"/>
-      <c r="CQ2" s="64"/>
-      <c r="CR2" s="64"/>
-      <c r="CS2" s="64"/>
-      <c r="CT2" s="64"/>
-      <c r="CU2" s="64"/>
-      <c r="CV2" s="64"/>
-      <c r="CW2" s="64"/>
-      <c r="CX2" s="64"/>
-      <c r="CY2" s="64"/>
-      <c r="CZ2" s="64"/>
-      <c r="DA2" s="64"/>
-      <c r="DB2" s="64"/>
-      <c r="DC2" s="64"/>
-      <c r="DD2" s="64"/>
-      <c r="DE2" s="64"/>
-      <c r="DF2" s="64"/>
-      <c r="DG2" s="64"/>
-      <c r="DH2" s="64"/>
-      <c r="DI2" s="64"/>
-      <c r="DJ2" s="64"/>
-      <c r="DK2" s="64"/>
-      <c r="DL2" s="64"/>
-      <c r="DM2" s="64"/>
-      <c r="DN2" s="64"/>
-      <c r="DO2" s="64"/>
-      <c r="DP2" s="64"/>
-      <c r="DQ2" s="64"/>
-      <c r="DR2" s="64"/>
-      <c r="DS2" s="64"/>
-      <c r="DT2" s="64"/>
-      <c r="DU2" s="64"/>
-      <c r="DV2" s="64"/>
-      <c r="DW2" s="64"/>
-      <c r="DX2" s="64"/>
-      <c r="DY2" s="64"/>
-      <c r="DZ2" s="64"/>
-      <c r="EA2" s="64"/>
-      <c r="EB2" s="64"/>
-      <c r="EC2" s="64"/>
-      <c r="ED2" s="64"/>
-      <c r="EE2" s="64" t="s">
-        <v>410</v>
-      </c>
-      <c r="EF2" s="64"/>
-      <c r="EG2" s="64" t="s">
-        <v>410</v>
-      </c>
-      <c r="EH2" s="64"/>
-      <c r="EI2" s="64" t="s">
-        <v>410</v>
-      </c>
-      <c r="EJ2" s="64"/>
-      <c r="EK2" s="64" t="s">
-        <v>411</v>
-      </c>
-      <c r="EL2" s="64"/>
-      <c r="EM2" s="64" t="s">
-        <v>411</v>
-      </c>
-      <c r="EN2" s="64"/>
-      <c r="EO2" s="64" t="s">
-        <v>410</v>
-      </c>
-      <c r="EP2" s="64"/>
-      <c r="EQ2" s="64"/>
-    </row>
-    <row r="3" spans="1:147" s="46" customFormat="1" ht="18" thickBot="1">
-      <c r="A3" s="44"/>
-      <c r="B3" s="79">
-        <v>0</v>
-      </c>
-      <c r="C3" s="80">
-        <v>0</v>
-      </c>
-      <c r="D3" s="80">
-        <v>0</v>
-      </c>
-      <c r="E3" s="80" t="s">
-        <v>412</v>
-      </c>
-      <c r="F3" s="80">
-        <v>0</v>
-      </c>
-      <c r="G3" s="80" t="s">
-        <v>477</v>
-      </c>
-      <c r="H3" s="66">
-        <v>1</v>
-      </c>
-      <c r="I3" s="67" t="s">
-        <v>478</v>
-      </c>
-      <c r="J3" s="66">
-        <v>2</v>
-      </c>
-      <c r="K3" s="66" t="s">
-        <v>413</v>
-      </c>
-      <c r="L3" s="66">
-        <v>2999</v>
-      </c>
-      <c r="M3" s="66">
-        <v>3</v>
-      </c>
-      <c r="N3" s="66" t="s">
-        <v>414</v>
-      </c>
-      <c r="O3" s="66">
-        <v>3999</v>
-      </c>
-      <c r="P3" s="66">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="66" t="s">
-        <v>415</v>
-      </c>
-      <c r="R3" s="66">
-        <v>104</v>
-      </c>
-      <c r="S3" s="66" t="s">
-        <v>416</v>
-      </c>
-      <c r="T3" s="66">
-        <v>204</v>
-      </c>
-      <c r="U3" s="66" t="s">
-        <v>417</v>
-      </c>
-      <c r="V3" s="66">
+      <c r="CD4" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="CE4" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="CF4" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="CG4" s="65" t="s">
+        <v>275</v>
+      </c>
+      <c r="CH4" s="65" t="s">
+        <v>474</v>
+      </c>
+      <c r="CI4" s="65" t="s">
+        <v>271</v>
+      </c>
+      <c r="CJ4" s="65" t="s">
+        <v>474</v>
+      </c>
+      <c r="CK4" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="CL4" s="65" t="s">
+        <v>311</v>
+      </c>
+      <c r="CM4" s="65" t="s">
+        <v>474</v>
+      </c>
+      <c r="CN4" s="65" t="s">
+        <v>312</v>
+      </c>
+      <c r="CO4" s="65" t="s">
+        <v>474</v>
+      </c>
+      <c r="CP4" s="65" t="s">
+        <v>313</v>
+      </c>
+      <c r="CQ4" s="65" t="s">
+        <v>474</v>
+      </c>
+      <c r="CR4" s="65" t="s">
+        <v>314</v>
+      </c>
+      <c r="CS4" s="65" t="s">
+        <v>474</v>
+      </c>
+      <c r="CT4" s="65" t="s">
+        <v>280</v>
+      </c>
+      <c r="CU4" s="65" t="s">
+        <v>474</v>
+      </c>
+      <c r="CV4" s="65" t="s">
+        <v>315</v>
+      </c>
+      <c r="CW4" s="65" t="s">
+        <v>474</v>
+      </c>
+      <c r="CX4" s="65" t="s">
+        <v>316</v>
+      </c>
+      <c r="CY4" s="65" t="s">
+        <v>474</v>
+      </c>
+      <c r="CZ4" s="65" t="s">
+        <v>317</v>
+      </c>
+      <c r="DA4" s="65" t="s">
+        <v>474</v>
+      </c>
+      <c r="DB4" s="65" t="s">
+        <v>305</v>
+      </c>
+      <c r="DC4" s="65" t="s">
+        <v>474</v>
+      </c>
+      <c r="DD4" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="DE4" s="65" t="s">
+        <v>474</v>
+      </c>
+      <c r="DF4" s="65" t="s">
+        <v>308</v>
+      </c>
+      <c r="DG4" s="65" t="s">
+        <v>474</v>
+      </c>
+      <c r="DH4" s="65" t="s">
         <v>304</v>
       </c>
-      <c r="W3" s="66" t="s">
-        <v>418</v>
-      </c>
-      <c r="X3" s="66">
-        <v>404</v>
-      </c>
-      <c r="Y3" s="66" t="s">
-        <v>419</v>
-      </c>
-      <c r="Z3" s="66">
-        <v>4999</v>
-      </c>
-      <c r="AA3" s="66">
-        <v>5</v>
-      </c>
-      <c r="AB3" s="66" t="s">
-        <v>420</v>
-      </c>
-      <c r="AC3" s="66">
-        <v>105</v>
-      </c>
-      <c r="AD3" s="66" t="s">
-        <v>421</v>
-      </c>
-      <c r="AE3" s="66">
-        <v>205</v>
-      </c>
-      <c r="AF3" s="66" t="s">
-        <v>422</v>
-      </c>
-      <c r="AG3" s="66">
-        <v>305</v>
-      </c>
-      <c r="AH3" s="66" t="s">
-        <v>423</v>
-      </c>
-      <c r="AI3" s="66">
-        <v>405</v>
-      </c>
-      <c r="AJ3" s="66" t="s">
-        <v>424</v>
-      </c>
-      <c r="AK3" s="66">
-        <v>5999</v>
-      </c>
-      <c r="AL3" s="66">
-        <v>6</v>
-      </c>
-      <c r="AM3" s="66" t="s">
-        <v>425</v>
-      </c>
-      <c r="AN3" s="66">
-        <v>106</v>
-      </c>
-      <c r="AO3" s="66" t="s">
-        <v>426</v>
-      </c>
-      <c r="AP3" s="66">
-        <v>206</v>
-      </c>
-      <c r="AQ3" s="66" t="s">
-        <v>427</v>
-      </c>
-      <c r="AR3" s="66">
-        <v>306</v>
-      </c>
-      <c r="AS3" s="66" t="s">
-        <v>428</v>
-      </c>
-      <c r="AT3" s="66">
-        <v>406</v>
-      </c>
-      <c r="AU3" s="66" t="s">
-        <v>429</v>
-      </c>
-      <c r="AV3" s="66">
-        <v>506</v>
-      </c>
-      <c r="AW3" s="66" t="s">
-        <v>430</v>
-      </c>
-      <c r="AX3" s="66">
-        <v>606</v>
-      </c>
-      <c r="AY3" s="66" t="s">
-        <v>431</v>
-      </c>
-      <c r="AZ3" s="66">
-        <v>6999</v>
-      </c>
-      <c r="BA3" s="66">
-        <v>8</v>
-      </c>
-      <c r="BB3" s="66" t="s">
-        <v>432</v>
-      </c>
-      <c r="BC3" s="66">
-        <v>108</v>
-      </c>
-      <c r="BD3" s="66" t="s">
-        <v>433</v>
-      </c>
-      <c r="BE3" s="66">
-        <v>208</v>
-      </c>
-      <c r="BF3" s="66" t="s">
-        <v>434</v>
-      </c>
-      <c r="BG3" s="66">
-        <v>308</v>
-      </c>
-      <c r="BH3" s="66" t="s">
-        <v>435</v>
-      </c>
-      <c r="BI3" s="66">
-        <v>408</v>
-      </c>
-      <c r="BJ3" s="66" t="s">
-        <v>436</v>
-      </c>
-      <c r="BK3" s="66">
-        <v>508</v>
-      </c>
-      <c r="BL3" s="66" t="s">
-        <v>437</v>
-      </c>
-      <c r="BM3" s="66">
-        <v>608</v>
-      </c>
-      <c r="BN3" s="66" t="s">
-        <v>438</v>
-      </c>
-      <c r="BO3" s="66">
-        <v>708</v>
-      </c>
-      <c r="BP3" s="66" t="s">
-        <v>439</v>
-      </c>
-      <c r="BQ3" s="66">
-        <v>808</v>
-      </c>
-      <c r="BR3" s="66" t="s">
-        <v>440</v>
-      </c>
-      <c r="BS3" s="66">
-        <v>908</v>
-      </c>
-      <c r="BT3" s="66" t="s">
-        <v>441</v>
-      </c>
-      <c r="BU3" s="66">
-        <v>8999</v>
-      </c>
-      <c r="BV3" s="66">
-        <v>9</v>
-      </c>
-      <c r="BW3" s="66" t="s">
-        <v>442</v>
-      </c>
-      <c r="BX3" s="66">
-        <v>9999</v>
-      </c>
-      <c r="BY3" s="66">
-        <v>10</v>
-      </c>
-      <c r="BZ3" s="66" t="s">
-        <v>443</v>
-      </c>
-      <c r="CA3" s="66">
-        <v>110</v>
-      </c>
-      <c r="CB3" s="66" t="s">
-        <v>444</v>
-      </c>
-      <c r="CC3" s="66">
-        <v>210</v>
-      </c>
-      <c r="CD3" s="66" t="s">
-        <v>445</v>
-      </c>
-      <c r="CE3" s="66">
-        <v>310</v>
-      </c>
-      <c r="CF3" s="66" t="s">
-        <v>446</v>
-      </c>
-      <c r="CG3" s="66">
-        <v>410</v>
-      </c>
-      <c r="CH3" s="66" t="s">
-        <v>447</v>
-      </c>
-      <c r="CI3" s="66">
-        <v>510</v>
-      </c>
-      <c r="CJ3" s="66" t="s">
-        <v>448</v>
-      </c>
-      <c r="CK3" s="66">
-        <v>10999</v>
-      </c>
-      <c r="CL3" s="66">
-        <v>11</v>
-      </c>
-      <c r="CM3" s="66" t="s">
-        <v>449</v>
-      </c>
-      <c r="CN3" s="66">
-        <v>111</v>
-      </c>
-      <c r="CO3" s="66" t="s">
-        <v>450</v>
-      </c>
-      <c r="CP3" s="66">
-        <v>211</v>
-      </c>
-      <c r="CQ3" s="66" t="s">
-        <v>451</v>
-      </c>
-      <c r="CR3" s="66">
-        <v>311</v>
-      </c>
-      <c r="CS3" s="66" t="s">
-        <v>452</v>
-      </c>
-      <c r="CT3" s="66">
-        <v>411</v>
-      </c>
-      <c r="CU3" s="66" t="s">
-        <v>453</v>
-      </c>
-      <c r="CV3" s="66">
-        <v>511</v>
-      </c>
-      <c r="CW3" s="66" t="s">
-        <v>454</v>
-      </c>
-      <c r="CX3" s="66">
-        <v>611</v>
-      </c>
-      <c r="CY3" s="66" t="s">
-        <v>455</v>
-      </c>
-      <c r="CZ3" s="66">
-        <v>711</v>
-      </c>
-      <c r="DA3" s="66" t="s">
-        <v>456</v>
-      </c>
-      <c r="DB3" s="66">
-        <v>811</v>
-      </c>
-      <c r="DC3" s="66" t="s">
-        <v>457</v>
-      </c>
-      <c r="DD3" s="66">
-        <v>911</v>
-      </c>
-      <c r="DE3" s="66" t="s">
-        <v>458</v>
-      </c>
-      <c r="DF3" s="66">
-        <v>1011</v>
-      </c>
-      <c r="DG3" s="66" t="s">
-        <v>459</v>
-      </c>
-      <c r="DH3" s="66">
-        <v>1111</v>
-      </c>
-      <c r="DI3" s="66" t="s">
-        <v>460</v>
-      </c>
-      <c r="DJ3" s="66">
-        <v>1211</v>
-      </c>
-      <c r="DK3" s="66" t="s">
-        <v>461</v>
-      </c>
-      <c r="DL3" s="66">
-        <v>1311</v>
-      </c>
-      <c r="DM3" s="66" t="s">
-        <v>462</v>
-      </c>
-      <c r="DN3" s="66">
-        <v>11999</v>
-      </c>
-      <c r="DO3" s="66">
-        <v>12</v>
-      </c>
-      <c r="DP3" s="66" t="s">
-        <v>463</v>
-      </c>
-      <c r="DQ3" s="66">
-        <v>112</v>
-      </c>
-      <c r="DR3" s="66" t="s">
-        <v>464</v>
-      </c>
-      <c r="DS3" s="66">
-        <v>212</v>
-      </c>
-      <c r="DT3" s="66" t="s">
-        <v>465</v>
-      </c>
-      <c r="DU3" s="66">
-        <v>312</v>
-      </c>
-      <c r="DV3" s="66" t="s">
-        <v>466</v>
-      </c>
-      <c r="DW3" s="66">
-        <v>412</v>
-      </c>
-      <c r="DX3" s="66" t="s">
-        <v>467</v>
-      </c>
-      <c r="DY3" s="66">
-        <v>512</v>
-      </c>
-      <c r="DZ3" s="66" t="s">
-        <v>468</v>
-      </c>
-      <c r="EA3" s="66">
-        <v>12999</v>
-      </c>
-      <c r="EB3" s="66">
-        <v>13</v>
-      </c>
-      <c r="EC3" s="66" t="s">
-        <v>469</v>
-      </c>
-      <c r="ED3" s="66">
-        <v>13999</v>
-      </c>
-      <c r="EE3" s="66">
-        <v>14</v>
-      </c>
-      <c r="EF3" s="66" t="s">
-        <v>470</v>
-      </c>
-      <c r="EG3" s="66">
-        <v>114</v>
-      </c>
-      <c r="EH3" s="66" t="s">
-        <v>471</v>
-      </c>
-      <c r="EI3" s="66">
-        <v>214</v>
-      </c>
-      <c r="EJ3" s="66" t="s">
-        <v>472</v>
-      </c>
-      <c r="EK3" s="66">
-        <v>314</v>
-      </c>
-      <c r="EL3" s="66" t="s">
-        <v>473</v>
-      </c>
-      <c r="EM3" s="66">
-        <v>414</v>
-      </c>
-      <c r="EN3" s="66" t="s">
+      <c r="DI4" s="65" t="s">
         <v>474</v>
       </c>
-      <c r="EO3" s="66">
-        <v>514</v>
-      </c>
-      <c r="EP3" s="66" t="s">
-        <v>475</v>
-      </c>
-      <c r="EQ3" s="66">
-        <v>14999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:147" s="45" customFormat="1" ht="42" thickBot="1">
-      <c r="A4" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="81" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="82" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="82" t="s">
-        <v>476</v>
-      </c>
-      <c r="F4" s="82" t="s">
-        <v>134</v>
-      </c>
-      <c r="G4" s="82" t="s">
-        <v>476</v>
-      </c>
-      <c r="H4" s="69" t="s">
-        <v>265</v>
-      </c>
-      <c r="I4" s="70" t="s">
-        <v>476</v>
-      </c>
-      <c r="J4" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="K4" s="72" t="s">
-        <v>476</v>
-      </c>
-      <c r="L4" s="68" t="s">
-        <v>287</v>
-      </c>
-      <c r="M4" s="68" t="s">
-        <v>269</v>
-      </c>
-      <c r="N4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="O4" s="68" t="s">
-        <v>287</v>
-      </c>
-      <c r="P4" s="68" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q4" s="72" t="s">
-        <v>476</v>
-      </c>
-      <c r="R4" s="68" t="s">
-        <v>273</v>
-      </c>
-      <c r="S4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="T4" s="68" t="s">
-        <v>484</v>
-      </c>
-      <c r="U4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="V4" s="68" t="s">
-        <v>262</v>
-      </c>
-      <c r="W4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="X4" s="68" t="s">
+      <c r="DJ4" s="65" t="s">
+        <v>260</v>
+      </c>
+      <c r="DK4" s="65" t="s">
+        <v>474</v>
+      </c>
+      <c r="DL4" s="65" t="s">
         <v>275</v>
       </c>
-      <c r="Y4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="Z4" s="68" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA4" s="68" t="s">
-        <v>276</v>
-      </c>
-      <c r="AB4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC4" s="68" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="AE4" s="68" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="AG4" s="68" t="s">
-        <v>262</v>
-      </c>
-      <c r="AH4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="AI4" s="68" t="s">
-        <v>277</v>
-      </c>
-      <c r="AJ4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="AK4" s="68" t="s">
-        <v>287</v>
-      </c>
-      <c r="AL4" s="68" t="s">
-        <v>278</v>
-      </c>
-      <c r="AM4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="AN4" s="68" t="s">
-        <v>279</v>
-      </c>
-      <c r="AO4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="AP4" s="68" t="s">
-        <v>280</v>
-      </c>
-      <c r="AQ4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="AR4" s="68" t="s">
-        <v>281</v>
-      </c>
-      <c r="AS4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="AT4" s="68" t="s">
-        <v>282</v>
-      </c>
-      <c r="AU4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="AV4" s="68" t="s">
-        <v>283</v>
-      </c>
-      <c r="AW4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="AX4" s="68" t="s">
-        <v>284</v>
-      </c>
-      <c r="AY4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="AZ4" s="68" t="s">
-        <v>287</v>
-      </c>
-      <c r="BA4" s="68" t="s">
-        <v>282</v>
-      </c>
-      <c r="BB4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="BC4" s="68" t="s">
-        <v>273</v>
-      </c>
-      <c r="BD4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="BE4" s="68" t="s">
-        <v>305</v>
-      </c>
-      <c r="BF4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="BG4" s="68" t="s">
-        <v>306</v>
-      </c>
-      <c r="BH4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="BI4" s="68" t="s">
-        <v>326</v>
-      </c>
-      <c r="BJ4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="BK4" s="68" t="s">
-        <v>277</v>
-      </c>
-      <c r="BL4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="BM4" s="68" t="s">
-        <v>307</v>
-      </c>
-      <c r="BN4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="BO4" s="68" t="s">
-        <v>308</v>
-      </c>
-      <c r="BP4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="BQ4" s="68" t="s">
-        <v>309</v>
-      </c>
-      <c r="BR4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="BS4" s="68" t="s">
-        <v>310</v>
-      </c>
-      <c r="BT4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="BU4" s="68" t="s">
-        <v>287</v>
-      </c>
-      <c r="BV4" s="68" t="s">
-        <v>273</v>
-      </c>
-      <c r="BW4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="BX4" s="68" t="s">
-        <v>287</v>
-      </c>
-      <c r="BY4" s="68" t="s">
-        <v>311</v>
-      </c>
-      <c r="BZ4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="CA4" s="68" t="s">
-        <v>312</v>
-      </c>
-      <c r="CB4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="CC4" s="68" t="s">
-        <v>306</v>
-      </c>
-      <c r="CD4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="CE4" s="68" t="s">
-        <v>262</v>
-      </c>
-      <c r="CF4" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="CG4" s="73" t="s">
-        <v>277</v>
-      </c>
-      <c r="CH4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="CI4" s="73" t="s">
-        <v>273</v>
-      </c>
-      <c r="CJ4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="CK4" s="73" t="s">
-        <v>287</v>
-      </c>
-      <c r="CL4" s="73" t="s">
-        <v>313</v>
-      </c>
-      <c r="CM4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="CN4" s="73" t="s">
-        <v>314</v>
-      </c>
-      <c r="CO4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="CP4" s="73" t="s">
-        <v>315</v>
-      </c>
-      <c r="CQ4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="CR4" s="73" t="s">
-        <v>316</v>
-      </c>
-      <c r="CS4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="CT4" s="73" t="s">
-        <v>282</v>
-      </c>
-      <c r="CU4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="CV4" s="73" t="s">
-        <v>317</v>
-      </c>
-      <c r="CW4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="CX4" s="73" t="s">
+      <c r="DM4" s="65" t="s">
+        <v>474</v>
+      </c>
+      <c r="DN4" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="DO4" s="65" t="s">
         <v>318</v>
       </c>
-      <c r="CY4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="CZ4" s="73" t="s">
+      <c r="DP4" s="65" t="s">
+        <v>474</v>
+      </c>
+      <c r="DQ4" s="65" t="s">
         <v>319</v>
       </c>
-      <c r="DA4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="DB4" s="73" t="s">
-        <v>307</v>
-      </c>
-      <c r="DC4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="DD4" s="73" t="s">
-        <v>309</v>
-      </c>
-      <c r="DE4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="DF4" s="73" t="s">
-        <v>310</v>
-      </c>
-      <c r="DG4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="DH4" s="73" t="s">
-        <v>306</v>
-      </c>
-      <c r="DI4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="DJ4" s="73" t="s">
-        <v>262</v>
-      </c>
-      <c r="DK4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="DL4" s="73" t="s">
-        <v>277</v>
-      </c>
-      <c r="DM4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="DN4" s="73" t="s">
-        <v>287</v>
-      </c>
-      <c r="DO4" s="73" t="s">
+      <c r="DR4" s="65" t="s">
+        <v>474</v>
+      </c>
+      <c r="DS4" s="65" t="s">
+        <v>304</v>
+      </c>
+      <c r="DT4" s="65" t="s">
+        <v>474</v>
+      </c>
+      <c r="DU4" s="65" t="s">
+        <v>260</v>
+      </c>
+      <c r="DV4" s="65" t="s">
+        <v>474</v>
+      </c>
+      <c r="DW4" s="65" t="s">
+        <v>275</v>
+      </c>
+      <c r="DX4" s="65" t="s">
+        <v>474</v>
+      </c>
+      <c r="DY4" s="65" t="s">
+        <v>271</v>
+      </c>
+      <c r="DZ4" s="65" t="s">
+        <v>474</v>
+      </c>
+      <c r="EA4" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="EB4" s="65" t="s">
         <v>320</v>
       </c>
-      <c r="DP4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="DQ4" s="73" t="s">
+      <c r="EC4" s="65" t="s">
+        <v>474</v>
+      </c>
+      <c r="ED4" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="EE4" s="65" t="s">
         <v>321</v>
       </c>
-      <c r="DR4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="DS4" s="73" t="s">
-        <v>306</v>
-      </c>
-      <c r="DT4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="DU4" s="73" t="s">
-        <v>262</v>
-      </c>
-      <c r="DV4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="DW4" s="73" t="s">
-        <v>277</v>
-      </c>
-      <c r="DX4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="DY4" s="73" t="s">
-        <v>273</v>
-      </c>
-      <c r="DZ4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="EA4" s="73" t="s">
-        <v>287</v>
-      </c>
-      <c r="EB4" s="73" t="s">
+      <c r="EF4" s="65" t="s">
+        <v>474</v>
+      </c>
+      <c r="EG4" s="65" t="s">
         <v>322</v>
       </c>
-      <c r="EC4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="ED4" s="73" t="s">
-        <v>287</v>
-      </c>
-      <c r="EE4" s="73" t="s">
+      <c r="EH4" s="65" t="s">
+        <v>474</v>
+      </c>
+      <c r="EI4" s="65" t="s">
         <v>323</v>
       </c>
-      <c r="EF4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="EG4" s="73" t="s">
-        <v>324</v>
-      </c>
-      <c r="EH4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="EI4" s="73" t="s">
-        <v>325</v>
-      </c>
-      <c r="EJ4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="EK4" s="73" t="s">
-        <v>262</v>
-      </c>
-      <c r="EL4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="EM4" s="73" t="s">
-        <v>277</v>
-      </c>
-      <c r="EN4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="EO4" s="73" t="s">
-        <v>273</v>
-      </c>
-      <c r="EP4" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="EQ4" s="73" t="s">
-        <v>287</v>
+      <c r="EJ4" s="65" t="s">
+        <v>474</v>
+      </c>
+      <c r="EK4" s="65" t="s">
+        <v>260</v>
+      </c>
+      <c r="EL4" s="65" t="s">
+        <v>474</v>
+      </c>
+      <c r="EM4" s="65" t="s">
+        <v>275</v>
+      </c>
+      <c r="EN4" s="65" t="s">
+        <v>474</v>
+      </c>
+      <c r="EO4" s="65" t="s">
+        <v>271</v>
+      </c>
+      <c r="EP4" s="65" t="s">
+        <v>474</v>
+      </c>
+      <c r="EQ4" s="65" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:147" ht="31.8" customHeight="1" thickBot="1">
-      <c r="A5" s="49">
+      <c r="A5" s="41">
         <v>1</v>
       </c>
-      <c r="B5" s="50" t="s">
-        <v>270</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>511</v>
-      </c>
-      <c r="D5" s="52" t="s">
+      <c r="B5" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>509</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46" t="s">
+        <v>404</v>
+      </c>
+      <c r="I5" s="46"/>
+      <c r="J5" s="47" t="s">
         <v>286</v>
       </c>
-      <c r="F5" s="53" t="s">
-        <v>255</v>
-      </c>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54" t="s">
-        <v>406</v>
-      </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="55" t="s">
-        <v>288</v>
-      </c>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="75">
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="67">
         <v>2</v>
       </c>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="76" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="76" t="s">
-        <v>288</v>
-      </c>
-      <c r="AB5" s="74"/>
-      <c r="AC5" s="74"/>
-      <c r="AD5" s="74"/>
-      <c r="AE5" s="74"/>
-      <c r="AF5" s="74"/>
-      <c r="AG5" s="74"/>
-      <c r="AH5" s="74"/>
-      <c r="AI5" s="74"/>
-      <c r="AJ5" s="74"/>
-      <c r="AK5" s="74"/>
-      <c r="AL5" s="75" t="s">
-        <v>288</v>
-      </c>
-      <c r="AM5" s="74"/>
-      <c r="AN5" s="74"/>
-      <c r="AO5" s="74"/>
-      <c r="AP5" s="74"/>
-      <c r="AQ5" s="74"/>
-      <c r="AR5" s="74"/>
-      <c r="AS5" s="74"/>
-      <c r="AT5" s="74"/>
-      <c r="AU5" s="74"/>
-      <c r="AV5" s="74"/>
-      <c r="AW5" s="74"/>
-      <c r="AX5" s="74"/>
-      <c r="AY5" s="74"/>
-      <c r="AZ5" s="74"/>
-      <c r="BA5" s="75" t="s">
-        <v>288</v>
-      </c>
-      <c r="BB5" s="74"/>
-      <c r="BC5" s="74"/>
-      <c r="BD5" s="74"/>
-      <c r="BE5" s="74"/>
-      <c r="BF5" s="74"/>
-      <c r="BG5" s="74"/>
-      <c r="BH5" s="74"/>
-      <c r="BI5" s="74"/>
-      <c r="BJ5" s="74"/>
-      <c r="BK5" s="74"/>
-      <c r="BL5" s="74"/>
-      <c r="BM5" s="74"/>
-      <c r="BN5" s="74"/>
-      <c r="BO5" s="74"/>
-      <c r="BP5" s="74"/>
-      <c r="BQ5" s="74"/>
-      <c r="BR5" s="74"/>
-      <c r="BS5" s="74"/>
-      <c r="BT5" s="74"/>
-      <c r="BU5" s="74"/>
-      <c r="BV5" s="75" t="s">
-        <v>288</v>
-      </c>
-      <c r="BW5" s="74"/>
-      <c r="BX5" s="74"/>
-      <c r="BY5" s="75">
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="66"/>
+      <c r="AJ5" s="66"/>
+      <c r="AK5" s="66"/>
+      <c r="AL5" s="67" t="s">
+        <v>286</v>
+      </c>
+      <c r="AM5" s="66"/>
+      <c r="AN5" s="66"/>
+      <c r="AO5" s="66"/>
+      <c r="AP5" s="66"/>
+      <c r="AQ5" s="66"/>
+      <c r="AR5" s="66"/>
+      <c r="AS5" s="66"/>
+      <c r="AT5" s="66"/>
+      <c r="AU5" s="66"/>
+      <c r="AV5" s="66"/>
+      <c r="AW5" s="66"/>
+      <c r="AX5" s="66"/>
+      <c r="AY5" s="66"/>
+      <c r="AZ5" s="66"/>
+      <c r="BA5" s="67" t="s">
+        <v>286</v>
+      </c>
+      <c r="BB5" s="66"/>
+      <c r="BC5" s="66"/>
+      <c r="BD5" s="66"/>
+      <c r="BE5" s="66"/>
+      <c r="BF5" s="66"/>
+      <c r="BG5" s="66"/>
+      <c r="BH5" s="66"/>
+      <c r="BI5" s="66"/>
+      <c r="BJ5" s="66"/>
+      <c r="BK5" s="66"/>
+      <c r="BL5" s="66"/>
+      <c r="BM5" s="66"/>
+      <c r="BN5" s="66"/>
+      <c r="BO5" s="66"/>
+      <c r="BP5" s="66"/>
+      <c r="BQ5" s="66"/>
+      <c r="BR5" s="66"/>
+      <c r="BS5" s="66"/>
+      <c r="BT5" s="66"/>
+      <c r="BU5" s="66"/>
+      <c r="BV5" s="67" t="s">
+        <v>286</v>
+      </c>
+      <c r="BW5" s="66"/>
+      <c r="BX5" s="66"/>
+      <c r="BY5" s="67">
         <v>2</v>
       </c>
-      <c r="BZ5" s="74"/>
-      <c r="CA5" s="74"/>
-      <c r="CB5" s="74"/>
-      <c r="CC5" s="74"/>
-      <c r="CD5" s="74"/>
-      <c r="CE5" s="74"/>
-      <c r="CF5" s="74"/>
-      <c r="CG5" s="74"/>
-      <c r="CH5" s="74"/>
-      <c r="CI5" s="74"/>
-      <c r="CJ5" s="74"/>
-      <c r="CK5" s="74"/>
-      <c r="CL5" s="75">
+      <c r="BZ5" s="66"/>
+      <c r="CA5" s="66"/>
+      <c r="CB5" s="66"/>
+      <c r="CC5" s="66"/>
+      <c r="CD5" s="66"/>
+      <c r="CE5" s="66"/>
+      <c r="CF5" s="66"/>
+      <c r="CG5" s="66"/>
+      <c r="CH5" s="66"/>
+      <c r="CI5" s="66"/>
+      <c r="CJ5" s="66"/>
+      <c r="CK5" s="66"/>
+      <c r="CL5" s="67">
         <v>2</v>
       </c>
-      <c r="CM5" s="74"/>
-      <c r="CN5" s="74"/>
-      <c r="CO5" s="74"/>
-      <c r="CP5" s="74"/>
-      <c r="CQ5" s="74"/>
-      <c r="CR5" s="74"/>
-      <c r="CS5" s="74"/>
-      <c r="CT5" s="74"/>
-      <c r="CU5" s="74"/>
-      <c r="CV5" s="74"/>
-      <c r="CW5" s="74"/>
-      <c r="CX5" s="74"/>
-      <c r="CY5" s="74"/>
-      <c r="CZ5" s="74"/>
-      <c r="DA5" s="74"/>
-      <c r="DB5" s="74"/>
-      <c r="DC5" s="74"/>
-      <c r="DD5" s="74"/>
-      <c r="DE5" s="74"/>
-      <c r="DF5" s="74"/>
-      <c r="DG5" s="74"/>
-      <c r="DH5" s="74"/>
-      <c r="DI5" s="74"/>
-      <c r="DJ5" s="74"/>
-      <c r="DK5" s="74"/>
-      <c r="DL5" s="74"/>
-      <c r="DM5" s="74"/>
-      <c r="DN5" s="74"/>
-      <c r="DO5" s="75">
+      <c r="CM5" s="66"/>
+      <c r="CN5" s="66"/>
+      <c r="CO5" s="66"/>
+      <c r="CP5" s="66"/>
+      <c r="CQ5" s="66"/>
+      <c r="CR5" s="66"/>
+      <c r="CS5" s="66"/>
+      <c r="CT5" s="66"/>
+      <c r="CU5" s="66"/>
+      <c r="CV5" s="66"/>
+      <c r="CW5" s="66"/>
+      <c r="CX5" s="66"/>
+      <c r="CY5" s="66"/>
+      <c r="CZ5" s="66"/>
+      <c r="DA5" s="66"/>
+      <c r="DB5" s="66"/>
+      <c r="DC5" s="66"/>
+      <c r="DD5" s="66"/>
+      <c r="DE5" s="66"/>
+      <c r="DF5" s="66"/>
+      <c r="DG5" s="66"/>
+      <c r="DH5" s="66"/>
+      <c r="DI5" s="66"/>
+      <c r="DJ5" s="66"/>
+      <c r="DK5" s="66"/>
+      <c r="DL5" s="66"/>
+      <c r="DM5" s="66"/>
+      <c r="DN5" s="66"/>
+      <c r="DO5" s="67">
         <v>2</v>
       </c>
-      <c r="DP5" s="74"/>
-      <c r="DQ5" s="74"/>
-      <c r="DR5" s="74"/>
-      <c r="DS5" s="74"/>
-      <c r="DT5" s="74"/>
-      <c r="DU5" s="74"/>
-      <c r="DV5" s="74"/>
-      <c r="DW5" s="74"/>
-      <c r="DX5" s="74"/>
-      <c r="DY5" s="74"/>
-      <c r="DZ5" s="74"/>
-      <c r="EA5" s="74"/>
-      <c r="EB5" s="75">
+      <c r="DP5" s="66"/>
+      <c r="DQ5" s="66"/>
+      <c r="DR5" s="66"/>
+      <c r="DS5" s="66"/>
+      <c r="DT5" s="66"/>
+      <c r="DU5" s="66"/>
+      <c r="DV5" s="66"/>
+      <c r="DW5" s="66"/>
+      <c r="DX5" s="66"/>
+      <c r="DY5" s="66"/>
+      <c r="DZ5" s="66"/>
+      <c r="EA5" s="66"/>
+      <c r="EB5" s="67">
         <v>2</v>
       </c>
-      <c r="EC5" s="74"/>
-      <c r="ED5" s="74"/>
-      <c r="EE5" s="75" t="s">
-        <v>491</v>
-      </c>
-      <c r="EF5" s="74"/>
-      <c r="EG5" s="74"/>
-      <c r="EH5" s="74"/>
-      <c r="EI5" s="74"/>
-      <c r="EJ5" s="74"/>
-      <c r="EK5" s="74"/>
-      <c r="EL5" s="74"/>
-      <c r="EM5" s="74"/>
-      <c r="EN5" s="74"/>
-      <c r="EO5" s="74"/>
-      <c r="EP5" s="74"/>
-      <c r="EQ5" s="74"/>
+      <c r="EC5" s="66"/>
+      <c r="ED5" s="66"/>
+      <c r="EE5" s="67" t="s">
+        <v>489</v>
+      </c>
+      <c r="EF5" s="66"/>
+      <c r="EG5" s="66"/>
+      <c r="EH5" s="66"/>
+      <c r="EI5" s="66"/>
+      <c r="EJ5" s="66"/>
+      <c r="EK5" s="66"/>
+      <c r="EL5" s="66"/>
+      <c r="EM5" s="66"/>
+      <c r="EN5" s="66"/>
+      <c r="EO5" s="66"/>
+      <c r="EP5" s="66"/>
+      <c r="EQ5" s="66"/>
     </row>
     <row r="6" spans="1:147">
-      <c r="J6" s="55" t="s">
-        <v>327</v>
-      </c>
-      <c r="K6" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="L6" s="56"/>
-      <c r="P6" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="R6" s="55" t="s">
-        <v>479</v>
-      </c>
-      <c r="S6" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="T6" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="W6" s="56"/>
-      <c r="AA6" s="55" t="s">
+      <c r="J6" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="K6" s="47" t="s">
+        <v>405</v>
+      </c>
+      <c r="L6" s="48"/>
+      <c r="P6" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="R6" s="47" t="s">
+        <v>477</v>
+      </c>
+      <c r="S6" s="47" t="s">
+        <v>405</v>
+      </c>
+      <c r="T6" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="W6" s="48"/>
+      <c r="AA6" s="47" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC6" s="47" t="s">
+        <v>477</v>
+      </c>
+      <c r="AD6" s="49" t="s">
+        <v>405</v>
+      </c>
+      <c r="AE6" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL6" s="47" t="s">
         <v>483</v>
       </c>
-      <c r="AC6" s="55" t="s">
-        <v>479</v>
-      </c>
-      <c r="AD6" s="57" t="s">
-        <v>407</v>
-      </c>
-      <c r="AE6" s="57" t="s">
-        <v>257</v>
-      </c>
-      <c r="AL6" s="55" t="s">
+      <c r="AN6" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="AP6" s="47" t="s">
+        <v>484</v>
+      </c>
+      <c r="AR6" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="AT6" s="47" t="s">
         <v>485</v>
       </c>
-      <c r="AN6" s="55" t="s">
-        <v>328</v>
-      </c>
-      <c r="AP6" s="55" t="s">
+      <c r="AV6" s="47" t="s">
         <v>486</v>
       </c>
-      <c r="AR6" s="55" t="s">
-        <v>328</v>
-      </c>
-      <c r="AT6" s="55" t="s">
-        <v>487</v>
-      </c>
-      <c r="AV6" s="55" t="s">
-        <v>488</v>
-      </c>
-      <c r="AW6" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="AX6" s="55" t="s">
-        <v>493</v>
-      </c>
-      <c r="BA6" s="55" t="s">
-        <v>487</v>
-      </c>
-      <c r="BC6" s="55" t="s">
-        <v>328</v>
-      </c>
-      <c r="BD6" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="BE6" s="55" t="s">
-        <v>486</v>
-      </c>
-      <c r="BG6" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="BM6" s="55" t="s">
-        <v>500</v>
-      </c>
-      <c r="BN6" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="BO6" s="55" t="s">
-        <v>328</v>
-      </c>
-      <c r="BP6" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="BQ6" s="55" t="s">
+      <c r="AW6" s="47" t="s">
+        <v>405</v>
+      </c>
+      <c r="AX6" s="47" t="s">
         <v>491</v>
       </c>
-      <c r="BS6" s="55" t="s">
-        <v>258</v>
-      </c>
-      <c r="BV6" s="55" t="s">
-        <v>328</v>
-      </c>
-      <c r="BX6" s="55" t="s">
-        <v>510</v>
+      <c r="BA6" s="47" t="s">
+        <v>485</v>
+      </c>
+      <c r="BC6" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="BD6" s="47" t="s">
+        <v>405</v>
+      </c>
+      <c r="BE6" s="47" t="s">
+        <v>484</v>
+      </c>
+      <c r="BG6" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="BM6" s="47" t="s">
+        <v>498</v>
+      </c>
+      <c r="BN6" s="47" t="s">
+        <v>405</v>
+      </c>
+      <c r="BO6" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="BP6" s="47" t="s">
+        <v>405</v>
+      </c>
+      <c r="BQ6" s="47" t="s">
+        <v>489</v>
+      </c>
+      <c r="BS6" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="BV6" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="BX6" s="47" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="7" spans="1:147">
-      <c r="J7" s="55" t="s">
-        <v>328</v>
-      </c>
-      <c r="K7" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="P7" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="R7" s="55" t="s">
-        <v>328</v>
-      </c>
-      <c r="S7" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="T7" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="AA7" s="55" t="s">
+      <c r="J7" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="K7" s="47" t="s">
+        <v>405</v>
+      </c>
+      <c r="P7" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="R7" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="S7" s="47" t="s">
+        <v>405</v>
+      </c>
+      <c r="T7" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA7" s="47" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC7" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="AD7" s="49" t="s">
+        <v>405</v>
+      </c>
+      <c r="AE7" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL7" s="47" t="s">
         <v>483</v>
       </c>
-      <c r="AC7" s="55" t="s">
-        <v>328</v>
-      </c>
-      <c r="AD7" s="57" t="s">
-        <v>407</v>
-      </c>
-      <c r="AE7" s="57" t="s">
-        <v>257</v>
-      </c>
-      <c r="AL7" s="55" t="s">
+      <c r="AN7" s="47" t="s">
+        <v>477</v>
+      </c>
+      <c r="AP7" s="47" t="s">
+        <v>484</v>
+      </c>
+      <c r="AR7" s="47" t="s">
+        <v>477</v>
+      </c>
+      <c r="AT7" s="47" t="s">
         <v>485</v>
       </c>
-      <c r="AN7" s="55" t="s">
-        <v>479</v>
-      </c>
-      <c r="AP7" s="55" t="s">
+      <c r="AV7" s="47" t="s">
+        <v>487</v>
+      </c>
+      <c r="AX7" s="47" t="s">
+        <v>492</v>
+      </c>
+      <c r="BA7" s="47" t="s">
+        <v>485</v>
+      </c>
+      <c r="BC7" s="47" t="s">
+        <v>477</v>
+      </c>
+      <c r="BD7" s="47" t="s">
+        <v>405</v>
+      </c>
+      <c r="BE7" s="47" t="s">
+        <v>484</v>
+      </c>
+      <c r="BG7" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="BM7" s="47" t="s">
         <v>486</v>
       </c>
-      <c r="AR7" s="55" t="s">
-        <v>479</v>
-      </c>
-      <c r="AT7" s="55" t="s">
-        <v>487</v>
-      </c>
-      <c r="AV7" s="55" t="s">
+      <c r="BN7" s="47" t="s">
+        <v>405</v>
+      </c>
+      <c r="BO7" s="47" t="s">
+        <v>503</v>
+      </c>
+      <c r="BP7" s="47" t="s">
+        <v>405</v>
+      </c>
+      <c r="BQ7" s="47" t="s">
         <v>489</v>
       </c>
-      <c r="AX7" s="55" t="s">
-        <v>494</v>
-      </c>
-      <c r="BA7" s="55" t="s">
-        <v>487</v>
-      </c>
-      <c r="BC7" s="55" t="s">
-        <v>479</v>
-      </c>
-      <c r="BD7" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="BE7" s="55" t="s">
-        <v>486</v>
-      </c>
-      <c r="BG7" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="BM7" s="55" t="s">
-        <v>488</v>
-      </c>
-      <c r="BN7" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="BO7" s="55" t="s">
-        <v>505</v>
-      </c>
-      <c r="BP7" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="BQ7" s="55" t="s">
-        <v>491</v>
-      </c>
-      <c r="BS7" s="55" t="s">
-        <v>258</v>
-      </c>
-      <c r="BV7" s="55" t="s">
-        <v>479</v>
-      </c>
-      <c r="BX7" s="55" t="s">
-        <v>510</v>
+      <c r="BS7" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="BV7" s="47" t="s">
+        <v>477</v>
+      </c>
+      <c r="BX7" s="47" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:147">
-      <c r="J8" s="55" t="s">
-        <v>409</v>
-      </c>
-      <c r="K8" s="55" t="s">
+      <c r="J8" s="47" t="s">
         <v>407</v>
       </c>
-      <c r="P8" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="R8" s="55" t="s">
-        <v>482</v>
-      </c>
-      <c r="S8" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="T8" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="AA8" s="55" t="s">
+      <c r="K8" s="47" t="s">
+        <v>405</v>
+      </c>
+      <c r="P8" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="R8" s="47" t="s">
+        <v>480</v>
+      </c>
+      <c r="S8" s="47" t="s">
+        <v>405</v>
+      </c>
+      <c r="T8" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA8" s="47" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC8" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="AD8" s="49" t="s">
+        <v>405</v>
+      </c>
+      <c r="AE8" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL8" s="47" t="s">
         <v>483</v>
       </c>
-      <c r="AC8" s="55" t="s">
-        <v>499</v>
-      </c>
-      <c r="AD8" s="57" t="s">
-        <v>407</v>
-      </c>
-      <c r="AE8" s="57" t="s">
-        <v>257</v>
-      </c>
-      <c r="AL8" s="55" t="s">
+      <c r="AN8" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="AP8" s="47" t="s">
+        <v>484</v>
+      </c>
+      <c r="AR8" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="AT8" s="47" t="s">
         <v>485</v>
       </c>
-      <c r="AN8" s="55" t="s">
-        <v>499</v>
-      </c>
-      <c r="AP8" s="55" t="s">
-        <v>486</v>
-      </c>
-      <c r="AR8" s="55" t="s">
-        <v>499</v>
-      </c>
-      <c r="AT8" s="55" t="s">
+      <c r="AV8" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="AW8" s="47" t="s">
+        <v>405</v>
+      </c>
+      <c r="AX8" s="47" t="s">
+        <v>493</v>
+      </c>
+      <c r="BA8" s="47" t="s">
+        <v>485</v>
+      </c>
+      <c r="BC8" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="BD8" s="47" t="s">
+        <v>405</v>
+      </c>
+      <c r="BE8" s="47" t="s">
+        <v>484</v>
+      </c>
+      <c r="BG8" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="BM8" s="47" t="s">
         <v>487</v>
       </c>
-      <c r="AV8" s="55" t="s">
-        <v>331</v>
-      </c>
-      <c r="AW8" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="AX8" s="55" t="s">
-        <v>495</v>
-      </c>
-      <c r="BA8" s="55" t="s">
-        <v>487</v>
-      </c>
-      <c r="BC8" s="55" t="s">
-        <v>499</v>
-      </c>
-      <c r="BD8" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="BE8" s="55" t="s">
-        <v>486</v>
-      </c>
-      <c r="BG8" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="BM8" s="55" t="s">
+      <c r="BO8" s="47" t="s">
+        <v>504</v>
+      </c>
+      <c r="BP8" s="47" t="s">
+        <v>405</v>
+      </c>
+      <c r="BQ8" s="47" t="s">
         <v>489</v>
       </c>
-      <c r="BO8" s="55" t="s">
-        <v>506</v>
-      </c>
-      <c r="BP8" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="BQ8" s="55" t="s">
-        <v>491</v>
-      </c>
-      <c r="BS8" s="55" t="s">
-        <v>258</v>
-      </c>
-      <c r="BV8" s="55" t="s">
-        <v>499</v>
-      </c>
-      <c r="BX8" s="55" t="s">
-        <v>510</v>
+      <c r="BS8" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="BV8" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="BX8" s="47" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:147">
-      <c r="J9" s="55" t="s">
-        <v>329</v>
-      </c>
-      <c r="K9" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="P9" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="R9" s="55" t="s">
-        <v>480</v>
-      </c>
-      <c r="S9" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="T9" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="AA9" s="55" t="s">
+      <c r="J9" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="K9" s="47" t="s">
+        <v>405</v>
+      </c>
+      <c r="P9" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="R9" s="47" t="s">
+        <v>478</v>
+      </c>
+      <c r="S9" s="47" t="s">
+        <v>405</v>
+      </c>
+      <c r="T9" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA9" s="47" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC9" s="47" t="s">
+        <v>478</v>
+      </c>
+      <c r="AD9" s="49" t="s">
+        <v>405</v>
+      </c>
+      <c r="AE9" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL9" s="47" t="s">
         <v>483</v>
       </c>
-      <c r="AC9" s="55" t="s">
-        <v>480</v>
-      </c>
-      <c r="AD9" s="57" t="s">
-        <v>407</v>
-      </c>
-      <c r="AE9" s="57" t="s">
-        <v>257</v>
-      </c>
-      <c r="AL9" s="55" t="s">
+      <c r="AN9" s="47" t="s">
+        <v>478</v>
+      </c>
+      <c r="AP9" s="47" t="s">
+        <v>484</v>
+      </c>
+      <c r="AR9" s="47" t="s">
+        <v>478</v>
+      </c>
+      <c r="AT9" s="47" t="s">
         <v>485</v>
       </c>
-      <c r="AN9" s="55" t="s">
-        <v>480</v>
-      </c>
-      <c r="AP9" s="55" t="s">
-        <v>486</v>
-      </c>
-      <c r="AR9" s="55" t="s">
-        <v>480</v>
-      </c>
-      <c r="AT9" s="55" t="s">
-        <v>487</v>
-      </c>
-      <c r="AV9" s="55" t="s">
-        <v>490</v>
-      </c>
-      <c r="AW9" s="55" t="s">
-        <v>408</v>
-      </c>
-      <c r="AX9" s="55" t="s">
-        <v>496</v>
-      </c>
-      <c r="BA9" s="55" t="s">
-        <v>487</v>
-      </c>
-      <c r="BC9" s="55" t="s">
-        <v>509</v>
-      </c>
-      <c r="BD9" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="BE9" s="55" t="s">
-        <v>486</v>
-      </c>
-      <c r="BG9" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="BM9" s="55" t="s">
-        <v>501</v>
-      </c>
-      <c r="BO9" s="55" t="s">
+      <c r="AV9" s="47" t="s">
+        <v>488</v>
+      </c>
+      <c r="AW9" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="AX9" s="47" t="s">
+        <v>494</v>
+      </c>
+      <c r="BA9" s="47" t="s">
+        <v>485</v>
+      </c>
+      <c r="BC9" s="47" t="s">
+        <v>507</v>
+      </c>
+      <c r="BD9" s="47" t="s">
+        <v>405</v>
+      </c>
+      <c r="BE9" s="47" t="s">
+        <v>484</v>
+      </c>
+      <c r="BG9" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="BM9" s="47" t="s">
+        <v>499</v>
+      </c>
+      <c r="BO9" s="47" t="s">
+        <v>506</v>
+      </c>
+      <c r="BP9" s="47" t="s">
+        <v>405</v>
+      </c>
+      <c r="BQ9" s="47" t="s">
+        <v>489</v>
+      </c>
+      <c r="BS9" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="BU9" s="47" t="s">
+        <v>502</v>
+      </c>
+      <c r="BV9" s="47" t="s">
+        <v>507</v>
+      </c>
+      <c r="BX9" s="47" t="s">
         <v>508</v>
-      </c>
-      <c r="BP9" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="BQ9" s="55" t="s">
-        <v>491</v>
-      </c>
-      <c r="BS9" s="55" t="s">
-        <v>258</v>
-      </c>
-      <c r="BU9" s="55" t="s">
-        <v>504</v>
-      </c>
-      <c r="BV9" s="55" t="s">
-        <v>509</v>
-      </c>
-      <c r="BX9" s="55" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="10" spans="1:147">
-      <c r="J10" s="55" t="s">
-        <v>330</v>
-      </c>
-      <c r="P10" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="R10" s="55" t="s">
+      <c r="J10" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="P10" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="R10" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="T10" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA10" s="47" t="s">
         <v>481</v>
       </c>
-      <c r="T10" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="AA10" s="55" t="s">
+      <c r="AC10" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="AE10" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL10" s="47" t="s">
         <v>483</v>
       </c>
-      <c r="AC10" s="55" t="s">
-        <v>481</v>
-      </c>
-      <c r="AE10" s="57" t="s">
-        <v>257</v>
-      </c>
-      <c r="AL10" s="55" t="s">
+      <c r="AN10" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="AP10" s="47" t="s">
+        <v>484</v>
+      </c>
+      <c r="AR10" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="AT10" s="47" t="s">
         <v>485</v>
       </c>
-      <c r="AN10" s="55" t="s">
-        <v>481</v>
-      </c>
-      <c r="AP10" s="55" t="s">
-        <v>486</v>
-      </c>
-      <c r="AR10" s="55" t="s">
-        <v>481</v>
-      </c>
-      <c r="AT10" s="55" t="s">
-        <v>487</v>
-      </c>
-      <c r="AV10" s="55" t="s">
-        <v>491</v>
-      </c>
-      <c r="AX10" s="55" t="s">
-        <v>497</v>
-      </c>
-      <c r="BA10" s="55" t="s">
-        <v>487</v>
-      </c>
-      <c r="BC10" s="55" t="s">
-        <v>481</v>
-      </c>
-      <c r="BE10" s="55" t="s">
-        <v>486</v>
-      </c>
-      <c r="BG10" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="BM10" s="55" t="s">
-        <v>502</v>
-      </c>
-      <c r="BO10" s="55" t="s">
-        <v>507</v>
-      </c>
-      <c r="BQ10" s="55" t="s">
-        <v>491</v>
-      </c>
-      <c r="BS10" s="55" t="s">
-        <v>258</v>
-      </c>
-      <c r="BV10" s="55" t="s">
-        <v>501</v>
+      <c r="AV10" s="47" t="s">
+        <v>489</v>
+      </c>
+      <c r="AX10" s="47" t="s">
+        <v>495</v>
+      </c>
+      <c r="BA10" s="47" t="s">
+        <v>485</v>
+      </c>
+      <c r="BC10" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="BE10" s="47" t="s">
+        <v>484</v>
+      </c>
+      <c r="BG10" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="BM10" s="47" t="s">
+        <v>500</v>
+      </c>
+      <c r="BO10" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="BQ10" s="47" t="s">
+        <v>489</v>
+      </c>
+      <c r="BS10" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="BV10" s="47" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="1:147">
-      <c r="J11" s="55" t="s">
-        <v>331</v>
-      </c>
-      <c r="P11" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="R11" s="55" t="s">
-        <v>331</v>
-      </c>
-      <c r="T11" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="AA11" s="55" t="s">
+      <c r="J11" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="P11" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="R11" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="T11" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA11" s="47" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC11" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="AE11" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL11" s="47" t="s">
         <v>483</v>
       </c>
-      <c r="AC11" s="55" t="s">
-        <v>331</v>
-      </c>
-      <c r="AE11" s="57" t="s">
-        <v>257</v>
-      </c>
-      <c r="AL11" s="55" t="s">
+      <c r="AN11" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="AP11" s="47" t="s">
+        <v>484</v>
+      </c>
+      <c r="AR11" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="AT11" s="47" t="s">
         <v>485</v>
       </c>
-      <c r="AN11" s="55" t="s">
-        <v>331</v>
-      </c>
-      <c r="AP11" s="55" t="s">
-        <v>486</v>
-      </c>
-      <c r="AR11" s="55" t="s">
-        <v>331</v>
-      </c>
-      <c r="AT11" s="55" t="s">
-        <v>487</v>
-      </c>
-      <c r="AV11" s="55" t="s">
-        <v>492</v>
-      </c>
-      <c r="AX11" s="55" t="s">
-        <v>498</v>
-      </c>
-      <c r="BA11" s="55" t="s">
-        <v>487</v>
-      </c>
-      <c r="BC11" s="55" t="s">
-        <v>331</v>
-      </c>
-      <c r="BE11" s="55" t="s">
-        <v>486</v>
-      </c>
-      <c r="BG11" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="BM11" s="55" t="s">
-        <v>503</v>
-      </c>
-      <c r="BO11" s="55" t="s">
-        <v>502</v>
-      </c>
-      <c r="BQ11" s="55" t="s">
-        <v>491</v>
-      </c>
-      <c r="BS11" s="55" t="s">
-        <v>258</v>
-      </c>
-      <c r="BV11" s="55" t="s">
+      <c r="AV11" s="47" t="s">
+        <v>490</v>
+      </c>
+      <c r="AX11" s="47" t="s">
+        <v>496</v>
+      </c>
+      <c r="BA11" s="47" t="s">
+        <v>485</v>
+      </c>
+      <c r="BC11" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="BE11" s="47" t="s">
+        <v>484</v>
+      </c>
+      <c r="BG11" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="BM11" s="47" t="s">
         <v>501</v>
+      </c>
+      <c r="BO11" s="47" t="s">
+        <v>500</v>
+      </c>
+      <c r="BQ11" s="47" t="s">
+        <v>489</v>
+      </c>
+      <c r="BS11" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="BV11" s="47" t="s">
+        <v>499</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:Z1"/>
+    <mergeCell ref="CL1:DN1"/>
     <mergeCell ref="DO1:EA1"/>
     <mergeCell ref="EB1:ED1"/>
     <mergeCell ref="EE1:EQ1"/>
@@ -7097,11 +7169,6 @@
     <mergeCell ref="BA1:BU1"/>
     <mergeCell ref="BV1:BX1"/>
     <mergeCell ref="BY1:CK1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:Z1"/>
-    <mergeCell ref="CL1:DN1"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/XLS Data/SHG Haryana.xlsx
+++ b/XLS Data/SHG Haryana.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\eclipse-workspace\LokOSMain\XLS Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B74C19F-5EE5-4F34-BD94-F7ECA4F1DAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66035A0-BB39-4BE7-8469-27F41F69ED8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B5943E96-0337-46EC-8631-731C3FE0A3A7}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="19416" windowHeight="10296" activeTab="1" xr2:uid="{B5943E96-0337-46EC-8631-731C3FE0A3A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -353,7 +353,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="544">
   <si>
     <t>App</t>
   </si>
@@ -1972,9 +1972,6 @@
     <t>110049</t>
   </si>
   <si>
-    <t>BHADSON</t>
-  </si>
-  <si>
     <t>Vinay:9455120510</t>
   </si>
   <si>
@@ -1985,6 +1982,9 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>HARYANA TEST SHG 1</t>
   </si>
 </sst>
 </file>
@@ -3159,10 +3159,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC1CF2F-DF31-4E4A-8DA8-3780D013A601}">
-  <dimension ref="A1:BO2"/>
+  <dimension ref="A1:BO26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="14.4"/>
@@ -3373,13 +3373,13 @@
         <v>534</v>
       </c>
       <c r="BN1" s="85" t="s">
+        <v>540</v>
+      </c>
+      <c r="BO1" s="85" t="s">
         <v>541</v>
       </c>
-      <c r="BO1" s="85" t="s">
-        <v>542</v>
-      </c>
     </row>
-    <row r="2" spans="1:67" ht="28.8">
+    <row r="2" spans="1:67" ht="28.2" customHeight="1">
       <c r="A2" s="51">
         <v>1</v>
       </c>
@@ -3390,16 +3390,10 @@
         <v>536</v>
       </c>
       <c r="D2" s="87" t="s">
-        <v>522</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>539</v>
-      </c>
-      <c r="F2" s="51" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="G2" s="86" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H2" s="51" t="s">
         <v>227</v>
@@ -3477,7 +3471,7 @@
         <v>244</v>
       </c>
       <c r="AM2" s="51" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AN2" s="51" t="s">
         <v>245</v>
@@ -3558,6 +3552,126 @@
       <c r="BO2" s="51" t="s">
         <v>537</v>
       </c>
+    </row>
+    <row r="3" spans="1:67" ht="28.2" customHeight="1">
+      <c r="D3" s="87"/>
+      <c r="G3" s="86"/>
+      <c r="AX3" s="86"/>
+    </row>
+    <row r="4" spans="1:67" ht="28.2" customHeight="1">
+      <c r="D4" s="87"/>
+      <c r="G4" s="86"/>
+      <c r="AX4" s="86"/>
+    </row>
+    <row r="5" spans="1:67" ht="28.2" customHeight="1">
+      <c r="D5" s="87"/>
+      <c r="G5" s="86"/>
+      <c r="AX5" s="86"/>
+    </row>
+    <row r="6" spans="1:67" ht="28.2" customHeight="1">
+      <c r="D6" s="87"/>
+      <c r="G6" s="86"/>
+      <c r="AX6" s="86"/>
+    </row>
+    <row r="7" spans="1:67" ht="28.2" customHeight="1">
+      <c r="D7" s="87"/>
+      <c r="G7" s="86"/>
+      <c r="AX7" s="86"/>
+    </row>
+    <row r="8" spans="1:67" ht="28.2" customHeight="1">
+      <c r="D8" s="87"/>
+      <c r="G8" s="86"/>
+      <c r="AX8" s="86"/>
+    </row>
+    <row r="9" spans="1:67" ht="28.2" customHeight="1">
+      <c r="D9" s="87"/>
+      <c r="G9" s="86"/>
+      <c r="AX9" s="86"/>
+    </row>
+    <row r="10" spans="1:67" ht="28.2" customHeight="1">
+      <c r="D10" s="87"/>
+      <c r="G10" s="86"/>
+      <c r="AX10" s="86"/>
+    </row>
+    <row r="11" spans="1:67" ht="28.2" customHeight="1">
+      <c r="D11" s="87"/>
+      <c r="G11" s="86"/>
+      <c r="AX11" s="86"/>
+    </row>
+    <row r="12" spans="1:67" ht="28.2" customHeight="1">
+      <c r="D12" s="87"/>
+      <c r="G12" s="86"/>
+      <c r="AX12" s="86"/>
+    </row>
+    <row r="13" spans="1:67" ht="28.2" customHeight="1">
+      <c r="D13" s="87"/>
+      <c r="G13" s="86"/>
+      <c r="AX13" s="86"/>
+    </row>
+    <row r="14" spans="1:67" ht="28.2" customHeight="1">
+      <c r="D14" s="87"/>
+      <c r="G14" s="86"/>
+      <c r="AX14" s="86"/>
+    </row>
+    <row r="15" spans="1:67" ht="28.2" customHeight="1">
+      <c r="D15" s="87"/>
+      <c r="G15" s="86"/>
+      <c r="AX15" s="86"/>
+    </row>
+    <row r="16" spans="1:67" ht="28.2" customHeight="1">
+      <c r="D16" s="87"/>
+      <c r="G16" s="86"/>
+      <c r="AX16" s="86"/>
+    </row>
+    <row r="17" spans="4:50" ht="28.2" customHeight="1">
+      <c r="D17" s="87"/>
+      <c r="G17" s="86"/>
+      <c r="AX17" s="86"/>
+    </row>
+    <row r="18" spans="4:50" ht="28.2" customHeight="1">
+      <c r="D18" s="87"/>
+      <c r="G18" s="86"/>
+      <c r="AX18" s="86"/>
+    </row>
+    <row r="19" spans="4:50" ht="28.2" customHeight="1">
+      <c r="D19" s="87"/>
+      <c r="G19" s="86"/>
+      <c r="AX19" s="86"/>
+    </row>
+    <row r="20" spans="4:50" ht="28.2" customHeight="1">
+      <c r="D20" s="87"/>
+      <c r="G20" s="86"/>
+      <c r="AX20" s="86"/>
+    </row>
+    <row r="21" spans="4:50" ht="28.2" customHeight="1">
+      <c r="D21" s="87"/>
+      <c r="G21" s="86"/>
+      <c r="AX21" s="86"/>
+    </row>
+    <row r="22" spans="4:50" ht="28.2" customHeight="1">
+      <c r="D22" s="87"/>
+      <c r="G22" s="86"/>
+      <c r="AX22" s="86"/>
+    </row>
+    <row r="23" spans="4:50" ht="28.2" customHeight="1">
+      <c r="D23" s="87"/>
+      <c r="G23" s="86"/>
+      <c r="AX23" s="86"/>
+    </row>
+    <row r="24" spans="4:50" ht="28.2" customHeight="1">
+      <c r="D24" s="87"/>
+      <c r="G24" s="86"/>
+      <c r="AX24" s="86"/>
+    </row>
+    <row r="25" spans="4:50" ht="28.2" customHeight="1">
+      <c r="D25" s="87"/>
+      <c r="G25" s="86"/>
+      <c r="AX25" s="86"/>
+    </row>
+    <row r="26" spans="4:50" ht="28.2" customHeight="1">
+      <c r="D26" s="87"/>
+      <c r="G26" s="86"/>
+      <c r="AX26" s="86"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
@@ -3572,7 +3686,7 @@
   <dimension ref="A1:BH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AV2" sqref="AV2:AV6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.44140625" defaultRowHeight="48.6" customHeight="1"/>
